--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport_9.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport_9.xlsx
@@ -526,85 +526,85 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.060981122901202E-06</v>
+        <v>5.587790681298231E-06</v>
       </c>
       <c r="C2">
-        <v>0.01528279910082424</v>
+        <v>0.01503302805761385</v>
       </c>
       <c r="D2">
-        <v>6.485072717171509E-05</v>
+        <v>6.951476148807848E-05</v>
       </c>
       <c r="E2">
-        <v>0.01634732931847996</v>
+        <v>0.01599546541568054</v>
       </c>
       <c r="F2">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="G2">
-        <v>21.1433750388552</v>
+        <v>19.01186702911018</v>
       </c>
       <c r="H2">
-        <v>22.20697338290883</v>
+        <v>18.84796452671314</v>
       </c>
       <c r="I2">
-        <v>28.44204428967726</v>
+        <v>19.92074712792234</v>
       </c>
       <c r="J2">
-        <v>31.40129319639731</v>
+        <v>20.65418368111391</v>
       </c>
       <c r="K2">
-        <v>64.1943692624917</v>
+        <v>20.0080555149884</v>
       </c>
       <c r="L2">
-        <v>0.2991926186385995</v>
+        <v>0.2147187430698699</v>
       </c>
       <c r="M2">
-        <v>0.009722999999999999</v>
+        <v>0.011112</v>
       </c>
       <c r="N2">
-        <v>0.001913418367346939</v>
+        <v>0.01842551020408163</v>
       </c>
       <c r="O2">
-        <v>0.003316591836734694</v>
+        <v>0.003795655102040817</v>
       </c>
       <c r="P2">
-        <v>0.005612693877551015</v>
+        <v>0.0001020489795918366</v>
       </c>
       <c r="Q2">
-        <v>0.3197583227202322</v>
+        <v>0.2481539573555842</v>
       </c>
       <c r="R2">
-        <v>1.002064632883784</v>
+        <v>1.0010423412147</v>
       </c>
       <c r="S2">
-        <v>8.964085134901906E-05</v>
+        <v>8.964115378847133E-05</v>
       </c>
       <c r="T2">
-        <v>0.001398452219922817</v>
+        <v>0.001398450138050583</v>
       </c>
       <c r="U2">
         <v>0.17</v>
       </c>
       <c r="V2">
-        <v>7.997886678068794</v>
+        <v>7.999002683745484</v>
       </c>
       <c r="W2">
-        <v>9.699093020326737</v>
+        <v>11.57505173460466</v>
       </c>
       <c r="X2">
-        <v>8.446227377390271</v>
+        <v>10.48602810450161</v>
       </c>
       <c r="Y2">
-        <v>0.002525592234190321</v>
+        <v>0.001524885035023969</v>
       </c>
       <c r="Z2">
-        <v>8.682149602255899E-05</v>
+        <v>0.004012338140519219</v>
       </c>
       <c r="AA2">
-        <v>0.002556182908434622</v>
+        <v>0.001543053865675931</v>
       </c>
       <c r="AB2">
-        <v>2.994811721654618E-05</v>
+        <v>6.919577633061452E-06</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -612,49 +612,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.056167929868757E-06</v>
+        <v>5.579869617584381E-06</v>
       </c>
       <c r="C3">
-        <v>0.01543651575106316</v>
+        <v>0.01518417465656462</v>
       </c>
       <c r="D3">
-        <v>6.559031301518746E-05</v>
+        <v>7.034521034048338E-05</v>
       </c>
       <c r="E3">
-        <v>0.01652068352729157</v>
+        <v>0.01616370732274089</v>
       </c>
       <c r="F3">
-        <v>5.399985694102835</v>
+        <v>3.099985694124348</v>
       </c>
       <c r="S3">
-        <v>8.885577390501866E-05</v>
+        <v>8.885607673066618E-05</v>
       </c>
       <c r="T3">
-        <v>0.001401977922210843</v>
+        <v>0.001401975813965128</v>
       </c>
       <c r="U3">
         <v>0.1683</v>
       </c>
       <c r="V3">
-        <v>7.994061120594167</v>
+        <v>7.67217549323549</v>
       </c>
       <c r="W3">
-        <v>9.697460451642648</v>
+        <v>11.17625601880169</v>
       </c>
       <c r="X3">
-        <v>8.445477591639275</v>
+        <v>10.08597464606089</v>
       </c>
       <c r="Y3">
-        <v>0.002550226282050602</v>
+        <v>0.001499759246079573</v>
       </c>
       <c r="Z3">
-        <v>8.702876691784204E-05</v>
+        <v>0.001581925704501297</v>
       </c>
       <c r="AA3">
-        <v>0.002581700431578239</v>
+        <v>0.00155857037363596</v>
       </c>
       <c r="AB3">
-        <v>3.029631227154939E-05</v>
+        <v>6.858299399023316E-06</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -662,49 +662,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.051253994532311E-06</v>
+        <v>5.571784634787684E-06</v>
       </c>
       <c r="C4">
-        <v>0.01559336192900242</v>
+        <v>0.01533839740601589</v>
       </c>
       <c r="D4">
-        <v>6.634682685108821E-05</v>
+        <v>7.119553258128396E-05</v>
       </c>
       <c r="E4">
-        <v>0.01669772632176373</v>
+        <v>0.01633549133011814</v>
       </c>
       <c r="F4">
-        <v>5.3999713153363</v>
+        <v>3.099971315379876</v>
       </c>
       <c r="S4">
-        <v>8.806970424645449E-05</v>
+        <v>8.807000746277985E-05</v>
       </c>
       <c r="T4">
-        <v>0.001405548521308018</v>
+        <v>0.001405546386081283</v>
       </c>
       <c r="U4">
         <v>0.1666</v>
       </c>
       <c r="V4">
-        <v>7.9902508169063</v>
+        <v>7.578946884838739</v>
       </c>
       <c r="W4">
-        <v>9.695834391091902</v>
+        <v>10.58800096531678</v>
       </c>
       <c r="X4">
-        <v>8.444835705051052</v>
+        <v>9.495721390124462</v>
       </c>
       <c r="Y4">
-        <v>0.002575360950572365</v>
+        <v>0.001498920812830372</v>
       </c>
       <c r="Z4">
-        <v>8.724032161342377E-05</v>
+        <v>0.0004122243422681456</v>
       </c>
       <c r="AA4">
-        <v>0.002607735167489532</v>
+        <v>0.001574404170311847</v>
       </c>
       <c r="AB4">
-        <v>3.064707291249632E-05</v>
+        <v>7.938024852471698E-06</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -712,49 +712,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.046236124384521E-06</v>
+        <v>5.563530610316378E-06</v>
       </c>
       <c r="C5">
-        <v>0.01575343424964316</v>
+        <v>0.01549579123976264</v>
       </c>
       <c r="D5">
-        <v>6.712085277929635E-05</v>
+        <v>7.206644436444887E-05</v>
       </c>
       <c r="E5">
-        <v>0.01687857589725638</v>
+        <v>0.01651092947012392</v>
       </c>
       <c r="F5">
-        <v>5.399956862294174</v>
+        <v>3.099956862360383</v>
       </c>
       <c r="S5">
-        <v>8.728263097596939E-05</v>
+        <v>8.728293458755471E-05</v>
       </c>
       <c r="T5">
-        <v>0.001409165056991092</v>
+        <v>0.001409162894155376</v>
       </c>
       <c r="U5">
         <v>0.1649</v>
       </c>
       <c r="V5">
-        <v>7.986458733389465</v>
+        <v>7.557197223000183</v>
       </c>
       <c r="W5">
-        <v>9.694195154056176</v>
+        <v>10.41333692238604</v>
       </c>
       <c r="X5">
-        <v>8.444254027958939</v>
+        <v>9.317731211863723</v>
       </c>
       <c r="Y5">
-        <v>0.002601011678705962</v>
+        <v>0.00151012386922792</v>
       </c>
       <c r="Z5">
-        <v>8.745633040617009E-05</v>
+        <v>0.0002796450730203263</v>
       </c>
       <c r="AA5">
-        <v>0.002634303085990327</v>
+        <v>0.001590553305832047</v>
       </c>
       <c r="AB5">
-        <v>3.100266956064692E-05</v>
+        <v>8.606693670910875E-06</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -762,49 +762,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.041110986199181E-06</v>
+        <v>5.555102199252216E-06</v>
       </c>
       <c r="C6">
-        <v>0.01591683334752716</v>
+        <v>0.0156564550397147</v>
       </c>
       <c r="D6">
-        <v>6.791300198988249E-05</v>
+        <v>7.295869654193287E-05</v>
       </c>
       <c r="E6">
-        <v>0.01706335552174323</v>
+        <v>0.01669013850854138</v>
       </c>
       <c r="F6">
-        <v>5.399942333526368</v>
+        <v>3.0999423336158</v>
       </c>
       <c r="S6">
-        <v>8.649454243712355E-05</v>
+        <v>8.649484644865339E-05</v>
       </c>
       <c r="T6">
-        <v>0.001412828604002508</v>
+        <v>0.001412826412908515</v>
       </c>
       <c r="U6">
         <v>0.1632</v>
       </c>
       <c r="V6">
-        <v>7.982682063130072</v>
+        <v>7.543015726891793</v>
       </c>
       <c r="W6">
-        <v>9.692549273511826</v>
+        <v>10.30687184177853</v>
       </c>
       <c r="X6">
-        <v>8.443748693854451</v>
+        <v>9.206674039115386</v>
       </c>
       <c r="Y6">
-        <v>0.002627194546917418</v>
+        <v>0.001522941356688416</v>
       </c>
       <c r="Z6">
-        <v>8.767691018628866E-05</v>
+        <v>0.0002218296903427709</v>
       </c>
       <c r="AA6">
-        <v>0.002661420798661469</v>
+        <v>0.001607031916375392</v>
       </c>
       <c r="AB6">
-        <v>3.136250421333499E-05</v>
+        <v>9.189611596713499E-06</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -812,49 +812,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.035875106451822E-06</v>
+        <v>5.546493835680472E-06</v>
       </c>
       <c r="C7">
-        <v>0.0160836640880065</v>
+        <v>0.01582049184332705</v>
       </c>
       <c r="D7">
-        <v>6.872391425989346E-05</v>
+        <v>7.387307661705539E-05</v>
       </c>
       <c r="E7">
-        <v>0.01725219381066504</v>
+        <v>0.01687324019753747</v>
       </c>
       <c r="F7">
-        <v>5.399927727537044</v>
+        <v>3.09992772765031</v>
       </c>
       <c r="S7">
-        <v>8.570542672297761E-05</v>
+        <v>8.570573113924243E-05</v>
       </c>
       <c r="T7">
-        <v>0.001416540273941292</v>
+        <v>0.00141653805391744</v>
       </c>
       <c r="U7">
         <v>0.1615</v>
       </c>
       <c r="V7">
-        <v>7.978918223468145</v>
+        <v>7.532102776895396</v>
       </c>
       <c r="W7">
-        <v>9.690890049956687</v>
+        <v>10.23298118077629</v>
       </c>
       <c r="X7">
-        <v>8.443304387882669</v>
+        <v>9.127426545423225</v>
       </c>
       <c r="Y7">
-        <v>0.002653926311514588</v>
+        <v>0.001536637268965739</v>
       </c>
       <c r="Z7">
-        <v>8.790221508326629E-05</v>
+        <v>0.0001895138835006035</v>
       </c>
       <c r="AA7">
-        <v>0.002689105622813554</v>
+        <v>0.001623851309057273</v>
       </c>
       <c r="AB7">
-        <v>3.172741059311782E-05</v>
+        <v>9.721413549169028E-06</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -862,49 +862,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.030524856496428E-06</v>
+        <v>5.537699709068177E-06</v>
       </c>
       <c r="C8">
-        <v>0.01625403579198252</v>
+        <v>0.01598800906424949</v>
       </c>
       <c r="D8">
-        <v>6.955425971450181E-05</v>
+        <v>7.481041114636248E-05</v>
       </c>
       <c r="E8">
-        <v>0.01744522501710934</v>
+        <v>0.01706036154031743</v>
       </c>
       <c r="F8">
-        <v>5.399913042782652</v>
+        <v>3.099913042920385</v>
       </c>
       <c r="S8">
-        <v>8.491527165598104E-05</v>
+        <v>8.491557648188081E-05</v>
       </c>
       <c r="T8">
-        <v>0.001420301216695796</v>
+        <v>0.001420298967047201</v>
       </c>
       <c r="U8">
         <v>0.1598</v>
       </c>
       <c r="V8">
-        <v>7.975176238604073</v>
+        <v>7.523004923663957</v>
       </c>
       <c r="W8">
-        <v>9.689223641119501</v>
+        <v>10.17830708858126</v>
       </c>
       <c r="X8">
-        <v>8.442936211153873</v>
+        <v>9.066991938352688</v>
       </c>
       <c r="Y8">
-        <v>0.002681224440200027</v>
+        <v>0.001550968368811113</v>
       </c>
       <c r="Z8">
-        <v>8.813239073155066E-05</v>
+        <v>0.000169084014539909</v>
       </c>
       <c r="AA8">
-        <v>0.002717375603794623</v>
+        <v>0.001641022903690338</v>
       </c>
       <c r="AB8">
-        <v>3.209684984044805E-05</v>
+        <v>1.021551282908052E-05</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -912,49 +912,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.025056456328098E-06</v>
+        <v>5.528713771391577E-06</v>
       </c>
       <c r="C9">
-        <v>0.01642806247512519</v>
+        <v>0.01615911872718609</v>
       </c>
       <c r="D9">
-        <v>7.040474050692796E-05</v>
+        <v>7.577156791910163E-05</v>
       </c>
       <c r="E9">
-        <v>0.01764258934478906</v>
+        <v>0.01725163507895926</v>
       </c>
       <c r="F9">
-        <v>5.399898277669839</v>
+        <v>3.099898277832696</v>
       </c>
       <c r="S9">
-        <v>8.412406478221966E-05</v>
+        <v>8.412437002276785E-05</v>
       </c>
       <c r="T9">
-        <v>0.001424112622252767</v>
+        <v>0.001424110342260177</v>
       </c>
       <c r="U9">
         <v>0.1581</v>
       </c>
       <c r="V9">
-        <v>7.971453592523898</v>
+        <v>7.515067490717349</v>
       </c>
       <c r="W9">
-        <v>9.687551948547878</v>
+        <v>10.13656239521511</v>
       </c>
       <c r="X9">
-        <v>8.442648427841197</v>
+        <v>9.019379486020595</v>
       </c>
       <c r="Y9">
-        <v>0.002709107150409366</v>
+        <v>0.001565827340362416</v>
       </c>
       <c r="Z9">
-        <v>8.836759677762336E-05</v>
+        <v>0.0001552725068953824</v>
       </c>
       <c r="AA9">
-        <v>0.002746249568890904</v>
+        <v>0.001658558467032932</v>
       </c>
       <c r="AB9">
-        <v>3.247077096592972E-05</v>
+        <v>1.067644574164606E-05</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -962,49 +962,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.019465953143849E-06</v>
+        <v>5.519529702692456E-06</v>
       </c>
       <c r="C10">
-        <v>0.01660586310267539</v>
+        <v>0.01633393771804768</v>
       </c>
       <c r="D10">
-        <v>7.127609288854442E-05</v>
+        <v>7.675745882497621E-05</v>
       </c>
       <c r="E10">
-        <v>0.01784443327663799</v>
+        <v>0.01744719919263594</v>
       </c>
       <c r="F10">
-        <v>5.399883430553251</v>
+        <v>3.09988343074191</v>
       </c>
       <c r="S10">
-        <v>8.333179336861216E-05</v>
+        <v>8.333209902893893E-05</v>
       </c>
       <c r="T10">
-        <v>0.001427975722679198</v>
+        <v>0.001427973411597862</v>
       </c>
       <c r="U10">
         <v>0.1564</v>
       </c>
       <c r="V10">
-        <v>7.967747993471507</v>
+        <v>7.507915779629781</v>
       </c>
       <c r="W10">
-        <v>9.685876451469944</v>
+        <v>10.10434097420724</v>
       </c>
       <c r="X10">
-        <v>8.442444765260294</v>
+        <v>8.981450493976357</v>
       </c>
       <c r="Y10">
-        <v>0.002737593449905363</v>
+        <v>0.001581159458117492</v>
       </c>
       <c r="Z10">
-        <v>8.860801135145235E-05</v>
+        <v>0.0001456037851325622</v>
       </c>
       <c r="AA10">
-        <v>0.002775747164520523</v>
+        <v>0.001676470228133924</v>
       </c>
       <c r="AB10">
-        <v>3.284914712028684E-05</v>
+        <v>1.110431549095265E-05</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1012,49 +1012,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.013749208917893E-06</v>
+        <v>5.510140891548697E-06</v>
       </c>
       <c r="C11">
-        <v>0.01678756186102469</v>
+        <v>0.01651258805056661</v>
       </c>
       <c r="D11">
-        <v>7.216908932535104E-05</v>
+        <v>7.776904273712926E-05</v>
       </c>
       <c r="E11">
-        <v>0.01805090992771204</v>
+        <v>0.01764719841881151</v>
       </c>
       <c r="F11">
-        <v>5.399868499733221</v>
+        <v>3.099868499948388</v>
       </c>
       <c r="S11">
-        <v>8.253844438070021E-05</v>
+        <v>8.253875046605722E-05</v>
       </c>
       <c r="T11">
-        <v>0.001431891793825208</v>
+        <v>0.001431889450883681</v>
       </c>
       <c r="U11">
         <v>0.1547</v>
       </c>
       <c r="V11">
-        <v>7.964057573938141</v>
+        <v>7.501330634213662</v>
       </c>
       <c r="W11">
-        <v>9.684190142163049</v>
+        <v>10.07773393213334</v>
       </c>
       <c r="X11">
-        <v>8.442309145754212</v>
+        <v>8.949169820375085</v>
       </c>
       <c r="Y11">
-        <v>0.002766703179999362</v>
+        <v>0.001596934795183261</v>
       </c>
       <c r="Z11">
-        <v>8.885383778373396E-05</v>
+        <v>0.0001382416688180585</v>
       </c>
       <c r="AA11">
-        <v>0.002805888900975471</v>
+        <v>0.001694770952448682</v>
       </c>
       <c r="AB11">
-        <v>3.323291758975526E-05</v>
+        <v>1.151737833155541E-05</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1062,49 +1062,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.007901914417808E-06</v>
+        <v>5.500540459525873E-06</v>
       </c>
       <c r="C12">
-        <v>0.01697328844737691</v>
+        <v>0.01669519715065361</v>
       </c>
       <c r="D12">
-        <v>7.308454046569501E-05</v>
+        <v>7.880732801947929E-05</v>
       </c>
       <c r="E12">
-        <v>0.01826217942771486</v>
+        <v>0.01785178380519344</v>
       </c>
       <c r="F12">
-        <v>5.399853483453307</v>
+        <v>3.099853483695715</v>
       </c>
       <c r="S12">
-        <v>8.174400448258727E-05</v>
+        <v>8.174431099835165E-05</v>
       </c>
       <c r="T12">
-        <v>0.001435862157597867</v>
+        <v>0.001435859781996746</v>
       </c>
       <c r="U12">
         <v>0.153</v>
       </c>
       <c r="V12">
-        <v>7.960385815583956</v>
+        <v>7.495175731626639</v>
       </c>
       <c r="W12">
-        <v>9.682494145866203</v>
+        <v>10.0565228225174</v>
       </c>
       <c r="X12">
-        <v>8.442244962921697</v>
+        <v>8.922630454794566</v>
       </c>
       <c r="Y12">
-        <v>0.002796457061579536</v>
+        <v>0.001613142496587319</v>
       </c>
       <c r="Z12">
-        <v>8.910528155434236E-05</v>
+        <v>0.000132779735836075</v>
       </c>
       <c r="AA12">
-        <v>0.002836696189679757</v>
+        <v>0.001713473769938872</v>
       </c>
       <c r="AB12">
-        <v>3.362211704970814E-05</v>
+        <v>1.190490942535767E-05</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1112,49 +1112,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.001919553158068E-06</v>
+        <v>5.490721202770794E-06</v>
       </c>
       <c r="C13">
-        <v>0.01716317837891523</v>
+        <v>0.01688189815989669</v>
       </c>
       <c r="D13">
-        <v>7.402329781613302E-05</v>
+        <v>7.987337632993176E-05</v>
       </c>
       <c r="E13">
-        <v>0.01847840931902126</v>
+        <v>0.01806111326774638</v>
       </c>
       <c r="F13">
-        <v>5.3998383798977</v>
+        <v>3.099838380168107</v>
       </c>
       <c r="S13">
-        <v>8.094846002522487E-05</v>
+        <v>8.094876697690345E-05</v>
       </c>
       <c r="T13">
-        <v>0.001439888184133627</v>
+        <v>0.001439885775044208</v>
       </c>
       <c r="U13">
         <v>0.1513</v>
       </c>
       <c r="V13">
-        <v>7.956731048065182</v>
+        <v>7.489359455644959</v>
       </c>
       <c r="W13">
-        <v>9.680809821044964</v>
+        <v>10.03899125188685</v>
       </c>
       <c r="X13">
-        <v>8.442297581784558</v>
+        <v>8.900047753122653</v>
       </c>
       <c r="Y13">
-        <v>0.002826876744501167</v>
+        <v>0.001629775786033962</v>
       </c>
       <c r="Z13">
-        <v>8.936251886026664E-05</v>
+        <v>0.0001285414332995862</v>
       </c>
       <c r="AA13">
-        <v>0.002868191403978971</v>
+        <v>0.001732592521180597</v>
       </c>
       <c r="AB13">
-        <v>3.401466159832973E-05</v>
+        <v>1.227584773162182E-05</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1162,49 +1162,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.995797393749669E-06</v>
+        <v>5.480675580757632E-06</v>
       </c>
       <c r="C14">
-        <v>0.01735737332301863</v>
+        <v>0.01707283025970994</v>
       </c>
       <c r="D14">
-        <v>7.498625628558502E-05</v>
+        <v>8.096830606976564E-05</v>
       </c>
       <c r="E14">
-        <v>0.01869977498885209</v>
+        <v>0.0182753519834734</v>
       </c>
       <c r="F14">
-        <v>5.399823187188489</v>
+        <v>3.099823187487685</v>
       </c>
       <c r="S14">
-        <v>8.015179703004906E-05</v>
+        <v>8.015210442328343E-05</v>
       </c>
       <c r="T14">
-        <v>0.001443971294009872</v>
+        <v>0.001443968850572733</v>
       </c>
       <c r="U14">
         <v>0.1496</v>
       </c>
       <c r="V14">
-        <v>7.953086685305733</v>
+        <v>7.483805670890479</v>
       </c>
       <c r="W14">
-        <v>9.679109204009702</v>
+        <v>10.02471924600324</v>
       </c>
       <c r="X14">
-        <v>8.442407223042437</v>
+        <v>8.88112309598686</v>
       </c>
       <c r="Y14">
-        <v>0.002857984860701632</v>
+        <v>0.001646835267315034</v>
       </c>
       <c r="Z14">
-        <v>8.962584375860057E-05</v>
+        <v>0.0001252903652511182</v>
       </c>
       <c r="AA14">
-        <v>0.00290039795786966</v>
+        <v>0.001752141574287972</v>
       </c>
       <c r="AB14">
-        <v>3.441372944578254E-05</v>
+        <v>1.262732501859577E-05</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1212,49 +1212,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.989530484580117E-06</v>
+        <v>5.470395709126366E-06</v>
       </c>
       <c r="C15">
-        <v>0.01755602145022246</v>
+        <v>0.01726813901779776</v>
       </c>
       <c r="D15">
-        <v>7.597435688726352E-05</v>
+        <v>8.20932960350401E-05</v>
       </c>
       <c r="E15">
-        <v>0.01892646013247277</v>
+        <v>0.01849467281133327</v>
       </c>
       <c r="F15">
-        <v>5.399807903382759</v>
+        <v>3.099807903711563</v>
       </c>
       <c r="S15">
-        <v>7.935400117921212E-05</v>
+        <v>7.935430901978323E-05</v>
       </c>
       <c r="T15">
-        <v>0.001448112960743508</v>
+        <v>0.001448110482067004</v>
       </c>
       <c r="U15">
         <v>0.1479</v>
       </c>
       <c r="V15">
-        <v>7.949461812043757</v>
+        <v>7.478468217754325</v>
       </c>
       <c r="W15">
-        <v>9.67740247928692</v>
+        <v>10.0122371066094</v>
       </c>
       <c r="X15">
-        <v>8.442595045005143</v>
+        <v>8.864145811443011</v>
       </c>
       <c r="Y15">
-        <v>0.002889805079287184</v>
+        <v>0.001664324289177838</v>
       </c>
       <c r="Z15">
-        <v>8.989547633234486E-05</v>
+        <v>0.0001225931035397216</v>
       </c>
       <c r="AA15">
-        <v>0.002933340305322808</v>
+        <v>0.00177213599094624</v>
       </c>
       <c r="AB15">
-        <v>3.481845626690953E-05</v>
+        <v>1.297381040061536E-05</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1262,49 +1262,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.983113651608135E-06</v>
+        <v>5.459873357511587E-06</v>
       </c>
       <c r="C16">
-        <v>0.01775927781177287</v>
+        <v>0.01746797675874849</v>
       </c>
       <c r="D16">
-        <v>7.698858960244928E-05</v>
+        <v>8.324958927414268E-05</v>
       </c>
       <c r="E16">
-        <v>0.01915865725026816</v>
+        <v>0.01871925674391432</v>
       </c>
       <c r="F16">
-        <v>5.399792526469493</v>
+        <v>3.099792526828757</v>
       </c>
       <c r="S16">
-        <v>7.855505780993839E-05</v>
+        <v>7.855536610377172E-05</v>
       </c>
       <c r="T16">
-        <v>0.001452314713546207</v>
+        <v>0.001452312198704866</v>
       </c>
       <c r="U16">
         <v>0.1462</v>
       </c>
       <c r="V16">
-        <v>7.945850302556585</v>
+        <v>7.473312446369089</v>
       </c>
       <c r="W16">
-        <v>9.675687774434417</v>
+        <v>10.00264823965504</v>
       </c>
       <c r="X16">
-        <v>8.442857752691959</v>
+        <v>8.850684310856707</v>
       </c>
       <c r="Y16">
-        <v>0.002922362167693636</v>
+        <v>0.001682251395987583</v>
       </c>
       <c r="Z16">
-        <v>9.017169237131047E-05</v>
+        <v>0.0001206506618645997</v>
       </c>
       <c r="AA16">
-        <v>0.002967044047753691</v>
+        <v>0.001792591365138632</v>
       </c>
       <c r="AB16">
-        <v>3.522926108209989E-05</v>
+        <v>1.329386964317153E-05</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1312,49 +1312,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.976541455883122E-06</v>
+        <v>5.449099881348571E-06</v>
       </c>
       <c r="C17">
-        <v>0.01796730474379841</v>
+        <v>0.01767250296074231</v>
       </c>
       <c r="D17">
-        <v>7.802999694195388E-05</v>
+        <v>8.443849818825379E-05</v>
       </c>
       <c r="E17">
-        <v>0.01939656817117644</v>
+        <v>0.0189492933755505</v>
       </c>
       <c r="F17">
-        <v>5.399777054366343</v>
+        <v>3.09977705475695</v>
       </c>
       <c r="S17">
-        <v>7.775495189236705E-05</v>
+        <v>7.775526064553818E-05</v>
       </c>
       <c r="T17">
-        <v>0.001456578139893937</v>
+        <v>0.001456575587926766</v>
       </c>
       <c r="U17">
         <v>0.1445</v>
       </c>
       <c r="V17">
-        <v>7.942256278578441</v>
+        <v>7.468298976747123</v>
       </c>
       <c r="W17">
-        <v>9.674001481439175</v>
+        <v>9.994437940330647</v>
       </c>
       <c r="X17">
-        <v>8.443267871851614</v>
+        <v>8.838864701932099</v>
       </c>
       <c r="Y17">
-        <v>0.002955682055638604</v>
+        <v>0.001700623169330207</v>
       </c>
       <c r="Z17">
-        <v>9.045473289542309E-05</v>
+        <v>0.0001190771642156126</v>
       </c>
       <c r="AA17">
-        <v>0.003001535986420415</v>
+        <v>0.001813524276850343</v>
       </c>
       <c r="AB17">
-        <v>3.564254697143494E-05</v>
+        <v>1.360637179426894E-05</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1362,49 +1362,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.969808198501428E-06</v>
+        <v>5.438066231865373E-06</v>
       </c>
       <c r="C18">
-        <v>0.01818027230030861</v>
+        <v>0.01788188468053462</v>
       </c>
       <c r="D18">
-        <v>7.909967720210697E-05</v>
+        <v>8.56614089034269E-05</v>
       </c>
       <c r="E18">
-        <v>0.0196404046258332</v>
+        <v>0.0191849814225048</v>
       </c>
       <c r="F18">
-        <v>5.399761484916157</v>
+        <v>3.099761485339029</v>
       </c>
       <c r="S18">
-        <v>7.695366801941811E-05</v>
+        <v>7.69539772381582E-05</v>
       </c>
       <c r="T18">
-        <v>0.001460904888541075</v>
+        <v>0.001460902298449756</v>
       </c>
       <c r="U18">
         <v>0.1428</v>
       </c>
       <c r="V18">
-        <v>7.938678990260604</v>
+        <v>7.463406326482115</v>
       </c>
       <c r="W18">
-        <v>9.672297075970967</v>
+        <v>9.987585975691429</v>
       </c>
       <c r="X18">
-        <v>8.443730470423445</v>
+        <v>8.828727418156776</v>
       </c>
       <c r="Y18">
-        <v>0.00298979190471888</v>
+        <v>0.001719451097962524</v>
       </c>
       <c r="Z18">
-        <v>9.074496438369405E-05</v>
+        <v>0.0001178460570465209</v>
       </c>
       <c r="AA18">
-        <v>0.003036844241651951</v>
+        <v>0.001834951870958153</v>
       </c>
       <c r="AB18">
-        <v>3.606351000977499E-05</v>
+        <v>1.390897844789692E-05</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -1412,49 +1412,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.962907905226041E-06</v>
+        <v>5.426762933006688E-06</v>
       </c>
       <c r="C19">
-        <v>0.01839835871745447</v>
+        <v>0.01809629700910849</v>
       </c>
       <c r="D19">
-        <v>8.019878821937664E-05</v>
+        <v>8.691978647245781E-05</v>
       </c>
       <c r="E19">
-        <v>0.0198903888571038</v>
+        <v>0.01942652927288452</v>
       </c>
       <c r="F19">
-        <v>5.399745815883294</v>
+        <v>3.099745816339388</v>
       </c>
       <c r="S19">
-        <v>7.615119039835214E-05</v>
+        <v>7.615150008905389E-05</v>
       </c>
       <c r="T19">
-        <v>0.00146529667278033</v>
+        <v>0.0014652940435273</v>
       </c>
       <c r="U19">
         <v>0.1411</v>
       </c>
       <c r="V19">
-        <v>7.935113190917349</v>
+        <v>7.458621922410593</v>
       </c>
       <c r="W19">
-        <v>9.670576735410298</v>
+        <v>9.982014980696299</v>
       </c>
       <c r="X19">
-        <v>8.444250872155187</v>
+        <v>8.820228393368831</v>
       </c>
       <c r="Y19">
-        <v>0.003024720181108461</v>
+        <v>0.00173874754423862</v>
       </c>
       <c r="Z19">
-        <v>9.104269592562064E-05</v>
+        <v>0.0001169230158308833</v>
       </c>
       <c r="AA19">
-        <v>0.003072998226370531</v>
+        <v>0.00185689214677153</v>
       </c>
       <c r="AB19">
-        <v>3.649217782531729E-05</v>
+        <v>1.420055154902455E-05</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -1462,49 +1462,49 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.955834306093215E-06</v>
+        <v>5.415180049968482E-06</v>
       </c>
       <c r="C20">
-        <v>0.01862175091171343</v>
+        <v>0.01831592356060405</v>
       </c>
       <c r="D20">
-        <v>8.132855148008448E-05</v>
+        <v>8.821518062308404E-05</v>
       </c>
       <c r="E20">
-        <v>0.02014675427517335</v>
+        <v>0.01967415557482115</v>
       </c>
       <c r="F20">
-        <v>5.399730044949721</v>
+        <v>3.099730045440036</v>
       </c>
       <c r="S20">
-        <v>7.534750283426516E-05</v>
+        <v>7.534781300348906E-05</v>
       </c>
       <c r="T20">
-        <v>0.001469755273740868</v>
+        <v>0.001469752604247278</v>
       </c>
       <c r="U20">
         <v>0.1394</v>
       </c>
       <c r="V20">
-        <v>7.931563511183892</v>
+        <v>7.45392053909579</v>
       </c>
       <c r="W20">
-        <v>9.668893517415668</v>
+        <v>9.977573676848095</v>
       </c>
       <c r="X20">
-        <v>8.44493152268314</v>
+        <v>8.813207260400773</v>
       </c>
       <c r="Y20">
-        <v>0.003060496735805811</v>
+        <v>0.001758525892146031</v>
       </c>
       <c r="Z20">
-        <v>9.13482740498395E-05</v>
+        <v>0.000116262554948748</v>
       </c>
       <c r="AA20">
-        <v>0.003110028787938156</v>
+        <v>0.001879363995493755</v>
       </c>
       <c r="AB20">
-        <v>3.692331758953782E-05</v>
+        <v>1.448165190150494E-05</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -1512,49 +1512,49 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.948580797910941E-06</v>
+        <v>5.403307130018565E-06</v>
       </c>
       <c r="C21">
-        <v>0.01885064501492618</v>
+        <v>0.01854095699739394</v>
       </c>
       <c r="D21">
-        <v>8.249025677248909E-05</v>
+        <v>8.954923240306265E-05</v>
       </c>
       <c r="E21">
-        <v>0.02040974615783179</v>
+        <v>0.01992808986098683</v>
       </c>
       <c r="F21">
-        <v>5.39971416971093</v>
+        <v>3.099714170236504</v>
       </c>
       <c r="S21">
-        <v>7.454258870133629E-05</v>
+        <v>7.454289935581721E-05</v>
       </c>
       <c r="T21">
-        <v>0.001474282543626031</v>
+        <v>0.00147427983276957</v>
       </c>
       <c r="U21">
         <v>0.1377</v>
       </c>
       <c r="V21">
-        <v>7.92802978386292</v>
+        <v>7.449296218869981</v>
       </c>
       <c r="W21">
-        <v>9.667198297582402</v>
+        <v>9.974133789958346</v>
       </c>
       <c r="X21">
-        <v>8.445675356124681</v>
+        <v>8.807523688731731</v>
       </c>
       <c r="Y21">
-        <v>0.00309715288965465</v>
+        <v>0.001778800748160813</v>
       </c>
       <c r="Z21">
-        <v>9.166207328871248E-05</v>
+        <v>0.0001158288310068306</v>
       </c>
       <c r="AA21">
-        <v>0.003147968361646163</v>
+        <v>0.001902387234303536</v>
       </c>
       <c r="AB21">
-        <v>3.73623885437948E-05</v>
+        <v>1.475298111792056E-05</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -1562,49 +1562,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.941140461469398E-06</v>
+        <v>5.391133233643639E-06</v>
       </c>
       <c r="C22">
-        <v>0.0190852469494031</v>
+        <v>0.01877159959445632</v>
       </c>
       <c r="D22">
-        <v>8.368526650416533E-05</v>
+        <v>9.092367997790983E-05</v>
       </c>
       <c r="E22">
-        <v>0.02067962241881346</v>
+        <v>0.02018857324349117</v>
       </c>
       <c r="F22">
-        <v>5.399698187671443</v>
+        <v>3.099698188233359</v>
       </c>
       <c r="S22">
-        <v>7.373643094541469E-05</v>
+        <v>7.373674209206864E-05</v>
       </c>
       <c r="T22">
-        <v>0.001478880409930366</v>
+        <v>0.001478877656542941</v>
       </c>
       <c r="U22">
         <v>0.136</v>
       </c>
       <c r="V22">
-        <v>7.924507745842647</v>
+        <v>7.444730448257042</v>
       </c>
       <c r="W22">
-        <v>9.665507913594039</v>
+        <v>9.9712612635439</v>
       </c>
       <c r="X22">
-        <v>8.446514230622929</v>
+        <v>8.802591898906297</v>
       </c>
       <c r="Y22">
-        <v>0.003134721524859225</v>
+        <v>0.001799587897125237</v>
       </c>
       <c r="Z22">
-        <v>9.198449155099596E-05</v>
+        <v>0.0001155269275239645</v>
       </c>
       <c r="AA22">
-        <v>0.003186850936309943</v>
+        <v>0.001925982662468357</v>
       </c>
       <c r="AB22">
-        <v>3.780797543172577E-05</v>
+        <v>1.502189982710447E-05</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -1612,49 +1612,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.933506002566134E-06</v>
+        <v>5.378646840448765E-06</v>
       </c>
       <c r="C23">
-        <v>0.01932577304665499</v>
+        <v>0.01900806384653832</v>
       </c>
       <c r="D23">
-        <v>8.491502136397726E-05</v>
+        <v>9.234036688426406E-05</v>
       </c>
       <c r="E23">
-        <v>0.02095665441536524</v>
+        <v>0.02045585912817687</v>
       </c>
       <c r="F23">
-        <v>5.399682096240177</v>
+        <v>3.099682096839563</v>
       </c>
       <c r="S23">
-        <v>7.292901205418028E-05</v>
+        <v>7.292932370011172E-05</v>
       </c>
       <c r="T23">
-        <v>0.00148355087917374</v>
+        <v>0.001483548082039007</v>
       </c>
       <c r="U23">
         <v>0.1343</v>
       </c>
       <c r="V23">
-        <v>7.920997843824887</v>
+        <v>7.440222592006301</v>
       </c>
       <c r="W23">
-        <v>9.663825813767279</v>
+        <v>9.969238773793617</v>
       </c>
       <c r="X23">
-        <v>8.447453078436595</v>
+        <v>8.798823570216264</v>
       </c>
       <c r="Y23">
-        <v>0.003173237183508696</v>
+        <v>0.001820905124588545</v>
       </c>
       <c r="Z23">
-        <v>9.231595799380675E-05</v>
+        <v>0.0001154104735710216</v>
       </c>
       <c r="AA23">
-        <v>0.003226712239612199</v>
+        <v>0.001950172039210651</v>
       </c>
       <c r="AB23">
-        <v>3.826010542962604E-05</v>
+        <v>1.528192824372818E-05</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -1662,49 +1662,49 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.925669755973332E-06</v>
+        <v>5.365835859092595E-06</v>
       </c>
       <c r="C24">
-        <v>0.0195724507136459</v>
+        <v>0.0192505731219185</v>
       </c>
       <c r="D24">
-        <v>8.618104561449626E-05</v>
+        <v>9.380124932994195E-05</v>
       </c>
       <c r="E24">
-        <v>0.02124112783666581</v>
+        <v>0.02073021401203137</v>
       </c>
       <c r="F24">
-        <v>5.399665892725394</v>
+        <v>3.099665893363427</v>
       </c>
       <c r="S24">
-        <v>7.212031404854805E-05</v>
+        <v>7.212062620105773E-05</v>
       </c>
       <c r="T24">
-        <v>0.001488296041428569</v>
+        <v>0.001488293199279292</v>
       </c>
       <c r="U24">
         <v>0.1326</v>
       </c>
       <c r="V24">
-        <v>7.917500960705669</v>
+        <v>7.435759847208129</v>
       </c>
       <c r="W24">
-        <v>9.662157083277217</v>
+        <v>9.967810995008303</v>
       </c>
       <c r="X24">
-        <v>8.448499733188418</v>
+        <v>8.795870309798934</v>
       </c>
       <c r="Y24">
-        <v>0.0032127361735794</v>
+        <v>0.001842770440627231</v>
       </c>
       <c r="Z24">
-        <v>9.265694252774497E-05</v>
+        <v>0.0001154250880978017</v>
       </c>
       <c r="AA24">
-        <v>0.003267589831076078</v>
+        <v>0.001974978322684586</v>
       </c>
       <c r="AB24">
-        <v>3.871866258179075E-05</v>
+        <v>1.553754361318389E-05</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -1712,49 +1712,49 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.917623641024804E-06</v>
+        <v>5.352687557820286E-06</v>
       </c>
       <c r="C25">
-        <v>0.01982551915089307</v>
+        <v>0.01949936236701705</v>
       </c>
       <c r="D25">
-        <v>8.748495347570965E-05</v>
+        <v>9.530840541677279E-05</v>
       </c>
       <c r="E25">
-        <v>0.02153334364949122</v>
+        <v>0.02101191832054803</v>
       </c>
       <c r="F25">
-        <v>5.39964957432942</v>
+        <v>3.099649575007329</v>
       </c>
       <c r="S25">
-        <v>7.131031845271977E-05</v>
+        <v>7.131063111931257E-05</v>
       </c>
       <c r="T25">
-        <v>0.00149311807464696</v>
+        <v>0.001493115186162188</v>
       </c>
       <c r="U25">
         <v>0.1309</v>
       </c>
       <c r="V25">
-        <v>7.914022269844674</v>
+        <v>7.431333982155369</v>
       </c>
       <c r="W25">
-        <v>9.660490884276705</v>
+        <v>9.967201529841772</v>
       </c>
       <c r="X25">
-        <v>8.449633345869525</v>
+        <v>8.794053778506031</v>
       </c>
       <c r="Y25">
-        <v>0.003253256683073578</v>
+        <v>0.001865203497153587</v>
       </c>
       <c r="Z25">
-        <v>9.300790238321168E-05</v>
+        <v>0.0001156135349611941</v>
       </c>
       <c r="AA25">
-        <v>0.003309523222874705</v>
+        <v>0.002000425605529669</v>
       </c>
       <c r="AB25">
-        <v>3.918515821177538E-05</v>
+        <v>1.578345405551609E-05</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -1762,49 +1762,49 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.909359157319063E-06</v>
+        <v>5.339188561598888E-06</v>
       </c>
       <c r="C26">
-        <v>0.02008523012717487</v>
+        <v>0.0197546788665118</v>
       </c>
       <c r="D26">
-        <v>8.882845549700375E-05</v>
+        <v>9.686404407235174E-05</v>
       </c>
       <c r="E26">
-        <v>0.02183361913162492</v>
+        <v>0.02130126732989896</v>
       </c>
       <c r="F26">
-        <v>5.399633138142877</v>
+        <v>3.099633138861946</v>
       </c>
       <c r="S26">
-        <v>7.04990062882431E-05</v>
+        <v>7.049931947663665E-05</v>
       </c>
       <c r="T26">
-        <v>0.001498019249918767</v>
+        <v>0.001498016313720817</v>
       </c>
       <c r="U26">
         <v>0.1292</v>
       </c>
       <c r="V26">
-        <v>7.910550089633785</v>
+        <v>7.426943430113531</v>
       </c>
       <c r="W26">
-        <v>9.658856249873747</v>
+        <v>9.966789692000901</v>
       </c>
       <c r="X26">
-        <v>8.450902965132366</v>
+        <v>8.792495386142674</v>
       </c>
       <c r="Y26">
-        <v>0.003294838903872135</v>
+        <v>0.00188822441770875</v>
       </c>
       <c r="Z26">
-        <v>9.336944215056716E-05</v>
+        <v>0.0001158512581977987</v>
       </c>
       <c r="AA26">
-        <v>0.003352553986883428</v>
+        <v>0.002026539318049066</v>
       </c>
       <c r="AB26">
-        <v>3.965714907827921E-05</v>
+        <v>1.603269423382301E-05</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -1812,49 +1812,49 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.900867325744482E-06</v>
+        <v>5.325324759460463E-06</v>
       </c>
       <c r="C27">
-        <v>0.02035184881613058</v>
+        <v>0.02001678306414432</v>
       </c>
       <c r="D27">
-        <v>9.021336623543312E-05</v>
+        <v>9.847051629666049E-05</v>
       </c>
       <c r="E27">
-        <v>0.02214228897369558</v>
+        <v>0.02159857213628277</v>
       </c>
       <c r="F27">
-        <v>5.399616581138694</v>
+        <v>3.099616581900261</v>
       </c>
       <c r="S27">
-        <v>6.968635803684431E-05</v>
+        <v>6.968667175497787E-05</v>
       </c>
       <c r="T27">
-        <v>0.001503001936323818</v>
+        <v>0.001502998950975051</v>
       </c>
       <c r="U27">
         <v>0.1275</v>
       </c>
       <c r="V27">
-        <v>7.907090315932528</v>
+        <v>7.422578889418126</v>
       </c>
       <c r="W27">
-        <v>9.657214344758357</v>
+        <v>9.96745138608533</v>
       </c>
       <c r="X27">
-        <v>8.452239700939975</v>
+        <v>8.792433895612296</v>
       </c>
       <c r="Y27">
-        <v>0.003337525163361756</v>
+        <v>0.001911856059835563</v>
       </c>
       <c r="Z27">
-        <v>9.374200196169917E-05</v>
+        <v>0.0001163121627039843</v>
       </c>
       <c r="AA27">
-        <v>0.00339672594472083</v>
+        <v>0.002053346073033269</v>
       </c>
       <c r="AB27">
-        <v>4.013901019688318E-05</v>
+        <v>1.626589731829705E-05</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -1862,49 +1862,49 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.892138678066632E-06</v>
+        <v>5.311081292532057E-06</v>
       </c>
       <c r="C28">
-        <v>0.02062565470058862</v>
+        <v>0.02028594944992605</v>
       </c>
       <c r="D28">
-        <v>9.164161191374724E-05</v>
+        <v>0.0001001303260477739</v>
       </c>
       <c r="E28">
-        <v>0.0224597064867009</v>
+        <v>0.02190416072733796</v>
       </c>
       <c r="F28">
-        <v>5.399599900165517</v>
+        <v>3.099599900970986</v>
       </c>
       <c r="S28">
-        <v>6.887235363181147E-05</v>
+        <v>6.887266788785551E-05</v>
       </c>
       <c r="T28">
-        <v>0.001508068606899944</v>
+        <v>0.001508065570899299</v>
       </c>
       <c r="U28">
         <v>0.1258</v>
       </c>
       <c r="V28">
-        <v>7.903644688984776</v>
+        <v>7.418231576730409</v>
       </c>
       <c r="W28">
-        <v>9.655595802975251</v>
+        <v>9.968297065901041</v>
       </c>
       <c r="X28">
-        <v>8.453694160678472</v>
+        <v>8.792605318036149</v>
       </c>
       <c r="Y28">
-        <v>0.003381360070948243</v>
+        <v>0.001936120166553557</v>
       </c>
       <c r="Z28">
-        <v>9.412625641643321E-05</v>
+        <v>0.0001168201230430487</v>
       </c>
       <c r="AA28">
-        <v>0.003442085227619802</v>
+        <v>0.002080874183515904</v>
       </c>
       <c r="AB28">
-        <v>4.062818636546015E-05</v>
+        <v>1.650253833240261E-05</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -1912,49 +1912,49 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.883163218665111E-06</v>
+        <v>5.296442496504552E-06</v>
       </c>
       <c r="C29">
-        <v>0.02090694255111842</v>
+        <v>0.02056246752011616</v>
       </c>
       <c r="D29">
-        <v>9.311523915222343E-05</v>
+        <v>0.0001018461429253932</v>
       </c>
       <c r="E29">
-        <v>0.02278624490268024</v>
+        <v>0.02221837912755554</v>
       </c>
       <c r="F29">
-        <v>5.399583091940804</v>
+        <v>3.09958309279164</v>
       </c>
       <c r="S29">
-        <v>6.805697242729541E-05</v>
+        <v>6.805728722966162E-05</v>
       </c>
       <c r="T29">
-        <v>0.001513221844490239</v>
+        <v>0.00151321875626953</v>
       </c>
       <c r="U29">
         <v>0.1241</v>
       </c>
       <c r="V29">
-        <v>7.900207173265359</v>
+        <v>7.413900155377815</v>
       </c>
       <c r="W29">
-        <v>9.65399194850144</v>
+        <v>9.969723089130349</v>
       </c>
       <c r="X29">
-        <v>8.455249970634995</v>
+        <v>8.793561820140051</v>
       </c>
       <c r="Y29">
-        <v>0.003426390671147309</v>
+        <v>0.001961042084957811</v>
       </c>
       <c r="Z29">
-        <v>9.452281478431347E-05</v>
+        <v>0.0001174546377185863</v>
       </c>
       <c r="AA29">
-        <v>0.003488680529554793</v>
+        <v>0.002109153247148555</v>
       </c>
       <c r="AB29">
-        <v>4.112610240227727E-05</v>
+        <v>1.673389245763515E-05</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -1962,49 +1962,49 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.873930384246951E-06</v>
+        <v>5.281391841668846E-06</v>
       </c>
       <c r="C30">
-        <v>0.02119602348600684</v>
+        <v>0.02084664281702158</v>
       </c>
       <c r="D30">
-        <v>9.463642450946966E-05</v>
+        <v>0.0001036208160887875</v>
       </c>
       <c r="E30">
-        <v>0.02312229878501762</v>
+        <v>0.022541592637261</v>
       </c>
       <c r="F30">
-        <v>5.399566153043342</v>
+        <v>3.099566153941078</v>
       </c>
       <c r="S30">
-        <v>6.724019317717205E-05</v>
+        <v>6.724050853452403E-05</v>
       </c>
       <c r="T30">
-        <v>0.001518464348306861</v>
+        <v>0.001518461206226797</v>
       </c>
       <c r="U30">
         <v>0.1224</v>
       </c>
       <c r="V30">
-        <v>7.896784066599306</v>
+        <v>7.409575337185107</v>
       </c>
       <c r="W30">
-        <v>9.6524142115711</v>
+        <v>9.971110790161305</v>
       </c>
       <c r="X30">
-        <v>8.456923381031578</v>
+        <v>8.794428803407216</v>
       </c>
       <c r="Y30">
-        <v>0.003472666613596795</v>
+        <v>0.001986647466169467</v>
       </c>
       <c r="Z30">
-        <v>9.493239947143716E-05</v>
+        <v>0.000118093495934674</v>
       </c>
       <c r="AA30">
-        <v>0.003536563229931912</v>
+        <v>0.002138214627074818</v>
       </c>
       <c r="AB30">
-        <v>4.163222734674815E-05</v>
+        <v>1.697409763182117E-05</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -2012,49 +2012,49 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.864429003298603E-06</v>
+        <v>5.265911872952058E-06</v>
       </c>
       <c r="C31">
-        <v>0.02149322612067581</v>
+        <v>0.02113879805647135</v>
       </c>
       <c r="D31">
-        <v>9.620748489325326E-05</v>
+        <v>0.0001054573895039174</v>
       </c>
       <c r="E31">
-        <v>0.02346828556038649</v>
+        <v>0.02287418717544931</v>
       </c>
       <c r="F31">
-        <v>5.399549079905254</v>
+        <v>3.099549080851499</v>
       </c>
       <c r="S31">
-        <v>6.642199400828049E-05</v>
+        <v>6.642230992954487E-05</v>
       </c>
       <c r="T31">
-        <v>0.001523798940865333</v>
+        <v>0.001523795743211239</v>
       </c>
       <c r="U31">
         <v>0.1207</v>
       </c>
       <c r="V31">
-        <v>7.893362506817815</v>
+        <v>7.405265667914479</v>
       </c>
       <c r="W31">
-        <v>9.650859338670852</v>
+        <v>9.973450070401622</v>
       </c>
       <c r="X31">
-        <v>8.458706929339765</v>
+        <v>8.796581859309224</v>
       </c>
       <c r="Y31">
-        <v>0.003520240334922504</v>
+        <v>0.002012965127722069</v>
       </c>
       <c r="Z31">
-        <v>9.535573282747527E-05</v>
+        <v>0.000118936076428004</v>
       </c>
       <c r="AA31">
-        <v>0.003585787610250012</v>
+        <v>0.002168091254250071</v>
       </c>
       <c r="AB31">
-        <v>4.214752759954862E-05</v>
+        <v>1.720092706043399E-05</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -2062,49 +2062,49 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.854647252684617E-06</v>
+        <v>5.249984146327451E-06</v>
       </c>
       <c r="C32">
-        <v>0.02179889781547271</v>
+        <v>0.02143927435171374</v>
       </c>
       <c r="D32">
-        <v>9.783088897376507E-05</v>
+        <v>0.000107359118737057</v>
       </c>
       <c r="E32">
-        <v>0.02382464718383489</v>
+        <v>0.02321657073551589</v>
       </c>
       <c r="F32">
-        <v>5.399531868803477</v>
+        <v>3.099531869799912</v>
       </c>
       <c r="S32">
-        <v>6.56023523875945E-05</v>
+        <v>6.560266888197272E-05</v>
       </c>
       <c r="T32">
-        <v>0.001529228575310335</v>
+        <v>0.001529225320287554</v>
       </c>
       <c r="U32">
         <v>0.119</v>
       </c>
       <c r="V32">
-        <v>7.889957214130976</v>
+        <v>7.400955437639018</v>
       </c>
       <c r="W32">
-        <v>9.649328674421975</v>
+        <v>9.975948098203151</v>
       </c>
       <c r="X32">
-        <v>8.460599781133936</v>
+        <v>8.798903505462921</v>
       </c>
       <c r="Y32">
-        <v>0.003569167257809576</v>
+        <v>0.002040022685597699</v>
       </c>
       <c r="Z32">
-        <v>9.579357262269394E-05</v>
+        <v>0.0001198256923115037</v>
       </c>
       <c r="AA32">
-        <v>0.003636411040002162</v>
+        <v>0.002198818258924209</v>
       </c>
       <c r="AB32">
-        <v>4.267253856667009E-05</v>
+        <v>1.743267199390495E-05</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -2112,49 +2112,49 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.844572611029341E-06</v>
+        <v>5.2335891605978E-06</v>
       </c>
       <c r="C33">
-        <v>0.02211340603179878</v>
+        <v>0.02174843254349601</v>
       </c>
       <c r="D33">
-        <v>9.950926971243668E-05</v>
+        <v>0.0001093294894906474</v>
       </c>
       <c r="E33">
-        <v>0.02419185195011173</v>
+        <v>0.02356917496435507</v>
       </c>
       <c r="F33">
-        <v>5.399514515850503</v>
+        <v>3.099514516898894</v>
       </c>
       <c r="S33">
-        <v>6.478124509758994E-05</v>
+        <v>6.478156217457134E-05</v>
       </c>
       <c r="T33">
-        <v>0.001534756343573897</v>
+        <v>0.001534753029302844</v>
       </c>
       <c r="U33">
         <v>0.1173</v>
       </c>
       <c r="V33">
-        <v>7.886560040136873</v>
+        <v>7.396641415996886</v>
       </c>
       <c r="W33">
-        <v>9.64781518402221</v>
+        <v>9.978719326914831</v>
       </c>
       <c r="X33">
-        <v>8.462589305966141</v>
+        <v>8.801545160078984</v>
       </c>
       <c r="Y33">
-        <v>0.003619506006870255</v>
+        <v>0.002067851627529383</v>
       </c>
       <c r="Z33">
-        <v>9.624669939723865E-05</v>
+        <v>0.000120786852914377</v>
       </c>
       <c r="AA33">
-        <v>0.003688494206689632</v>
+        <v>0.002230432542792764</v>
       </c>
       <c r="AB33">
-        <v>4.320865913944229E-05</v>
+        <v>1.766708951533582E-05</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -2162,49 +2162,49 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.834191816986662E-06</v>
+        <v>5.216706298284141E-06</v>
       </c>
       <c r="C34">
-        <v>0.02243713980771182</v>
+        <v>0.02206665464723138</v>
       </c>
       <c r="D34">
-        <v>0.0001012454380035001</v>
+        <v>0.0001113722378191043</v>
       </c>
       <c r="E34">
-        <v>0.02457039646978688</v>
+        <v>0.02393245688254731</v>
       </c>
       <c r="F34">
-        <v>5.39949701698441</v>
+        <v>3.099497018086609</v>
       </c>
       <c r="S34">
-        <v>6.395864821272627E-05</v>
+        <v>6.395896588210101E-05</v>
       </c>
       <c r="T34">
-        <v>0.00154038548524776</v>
+        <v>0.001540382109758584</v>
       </c>
       <c r="U34">
         <v>0.1156</v>
       </c>
       <c r="V34">
-        <v>7.883171035495796</v>
+        <v>7.392326268733724</v>
       </c>
       <c r="W34">
-        <v>9.64637148203794</v>
+        <v>9.982098633271535</v>
       </c>
       <c r="X34">
-        <v>8.464752073955944</v>
+        <v>8.804955050452683</v>
       </c>
       <c r="Y34">
-        <v>0.003671318643744859</v>
+        <v>0.002096484933038428</v>
       </c>
       <c r="Z34">
-        <v>9.671641699976377E-05</v>
+        <v>0.0001218905392644544</v>
       </c>
       <c r="AA34">
-        <v>0.003742101347094782</v>
+        <v>0.002262973211223315</v>
       </c>
       <c r="AB34">
-        <v>4.375167861858923E-05</v>
+        <v>1.789690910324465E-05</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -2212,49 +2212,49 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.823490775082604E-06</v>
+        <v>5.199313681610316E-06</v>
       </c>
       <c r="C35">
-        <v>0.02277051136546866</v>
+        <v>0.02239434542946142</v>
       </c>
       <c r="D35">
-        <v>0.0001030423984725715</v>
+        <v>0.0001134913740951266</v>
       </c>
       <c r="E35">
-        <v>0.02496080780640156</v>
+        <v>0.02430690072536805</v>
       </c>
       <c r="F35">
-        <v>5.399479367958389</v>
+        <v>3.099479369116342</v>
       </c>
       <c r="S35">
-        <v>6.313453704501283E-05</v>
+        <v>6.313485531688649E-05</v>
       </c>
       <c r="T35">
-        <v>0.001546119396301241</v>
+        <v>0.001546115957528076</v>
       </c>
       <c r="U35">
         <v>0.1139</v>
       </c>
       <c r="V35">
-        <v>7.879783553813023</v>
+        <v>7.387998528180093</v>
       </c>
       <c r="W35">
-        <v>9.644924898669256</v>
+        <v>9.985616504872196</v>
       </c>
       <c r="X35">
-        <v>8.466975610104555</v>
+        <v>8.808478688816045</v>
       </c>
       <c r="Y35">
-        <v>0.003724670915785831</v>
+        <v>0.002125956491154457</v>
       </c>
       <c r="Z35">
-        <v>9.720306269406226E-05</v>
+        <v>0.0001230429644211037</v>
       </c>
       <c r="AA35">
-        <v>0.003797300595878009</v>
+        <v>0.002296481812747496</v>
       </c>
       <c r="AB35">
-        <v>4.430927865674861E-05</v>
+        <v>1.813335151177763E-05</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -2262,49 +2262,49 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.81245456063749E-06</v>
+        <v>5.181388192282513E-06</v>
       </c>
       <c r="C36">
-        <v>0.0231139578649686</v>
+        <v>0.02273193412727</v>
       </c>
       <c r="D36">
-        <v>0.0001049033652124505</v>
+        <v>0.0001156912061560795</v>
       </c>
       <c r="E36">
-        <v>0.02536364584886316</v>
+        <v>0.02469302001009344</v>
       </c>
       <c r="F36">
-        <v>5.399461564328982</v>
+        <v>3.099461565544734</v>
       </c>
       <c r="S36">
-        <v>6.230888613831465E-05</v>
+        <v>6.230920502312313E-05</v>
       </c>
       <c r="T36">
-        <v>0.001551961639994187</v>
+        <v>0.001551958135768934</v>
       </c>
       <c r="U36">
         <v>0.1122</v>
       </c>
       <c r="V36">
-        <v>7.876409301921595</v>
+        <v>7.383665474581751</v>
       </c>
       <c r="W36">
-        <v>9.643506325909307</v>
+        <v>9.989691571830074</v>
       </c>
       <c r="X36">
-        <v>8.469304014288101</v>
+        <v>8.812673158949064</v>
       </c>
       <c r="Y36">
-        <v>0.003779632549923584</v>
+        <v>0.002156303665801933</v>
       </c>
       <c r="Z36">
-        <v>9.770786563226868E-05</v>
+        <v>0.0001243339927664231</v>
       </c>
       <c r="AA36">
-        <v>0.003854164100684392</v>
+        <v>0.00233100224397834</v>
       </c>
       <c r="AB36">
-        <v>4.487940930344227E-05</v>
+        <v>1.836735964379379E-05</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -2312,49 +2312,49 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.801067270339524E-06</v>
+        <v>5.162905239568571E-06</v>
       </c>
       <c r="C37">
-        <v>0.023467943318811</v>
+        <v>0.02307987632605637</v>
       </c>
       <c r="D37">
-        <v>0.0001068317816443657</v>
+        <v>0.0001179763700879935</v>
       </c>
       <c r="E37">
-        <v>0.02577950584664804</v>
+        <v>0.02509135969409712</v>
       </c>
       <c r="F37">
-        <v>5.399443601443976</v>
+        <v>3.099443602719674</v>
       </c>
       <c r="S37">
-        <v>6.14816692006035E-05</v>
+        <v>6.14819887091293E-05</v>
       </c>
       <c r="T37">
-        <v>0.001557915956868862</v>
+        <v>0.001557912384914475</v>
       </c>
       <c r="U37">
         <v>0.1105</v>
       </c>
       <c r="V37">
-        <v>7.87303905183596</v>
+        <v>7.379312926923121</v>
       </c>
       <c r="W37">
-        <v>9.642166444925918</v>
+        <v>9.993769772441981</v>
       </c>
       <c r="X37">
-        <v>8.471806856935315</v>
+        <v>8.816783491804831</v>
       </c>
       <c r="Y37">
-        <v>0.003836277545066527</v>
+        <v>0.002187564737694787</v>
       </c>
       <c r="Z37">
-        <v>9.823246019506663E-05</v>
+        <v>0.0001256502613122088</v>
       </c>
       <c r="AA37">
-        <v>0.003912768480551792</v>
+        <v>0.002366581242198872</v>
       </c>
       <c r="AB37">
-        <v>4.545833946335017E-05</v>
+        <v>1.861210107364512E-05</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -2362,49 +2362,49 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.789312013469055E-06</v>
+        <v>5.143838760707203E-06</v>
       </c>
       <c r="C38">
-        <v>0.02383296068657923</v>
+        <v>0.02343865601286837</v>
       </c>
       <c r="D38">
-        <v>0.0001088313400260808</v>
+        <v>0.0001203518594504403</v>
       </c>
       <c r="E38">
-        <v>0.02620902124288131</v>
+        <v>0.02550249862305684</v>
       </c>
       <c r="F38">
-        <v>5.399425474428826</v>
+        <v>3.099425475766731</v>
       </c>
       <c r="S38">
-        <v>6.065285908385421E-05</v>
+        <v>6.06531792272435E-05</v>
       </c>
       <c r="T38">
-        <v>0.001563986277085435</v>
+        <v>0.001563982635008647</v>
       </c>
       <c r="U38">
         <v>0.1088</v>
       </c>
       <c r="V38">
-        <v>7.869668099502507</v>
+        <v>7.374943109540983</v>
       </c>
       <c r="W38">
-        <v>9.640821674355131</v>
+        <v>9.998480274769749</v>
       </c>
       <c r="X38">
-        <v>8.474361475837295</v>
+        <v>8.821637453992386</v>
       </c>
       <c r="Y38">
-        <v>0.003894684499517643</v>
+        <v>0.002219782151388264</v>
       </c>
       <c r="Z38">
-        <v>9.877707724407937E-05</v>
+        <v>0.0001271282803199172</v>
       </c>
       <c r="AA38">
-        <v>0.003973195201506298</v>
+        <v>0.002403268260028953</v>
       </c>
       <c r="AB38">
-        <v>4.605476003647035E-05</v>
+        <v>1.885386329583706E-05</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -2412,49 +2412,49 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.777170814558265E-06</v>
+        <v>5.1241610778929E-06</v>
       </c>
       <c r="C39">
-        <v>0.02420953416827055</v>
+        <v>0.02380878782482738</v>
       </c>
       <c r="D39">
-        <v>0.0001109060044883099</v>
+        <v>0.0001228230607756372</v>
       </c>
       <c r="E39">
-        <v>0.02665286674554596</v>
+        <v>0.02592705215032849</v>
       </c>
       <c r="F39">
-        <v>5.399407178172161</v>
+        <v>3.099407179574655</v>
       </c>
       <c r="S39">
-        <v>5.982242774234392E-05</v>
+        <v>5.982274853212493E-05</v>
       </c>
       <c r="T39">
-        <v>0.001570176733196893</v>
+        <v>0.00157017301848034</v>
       </c>
       <c r="U39">
         <v>0.1071</v>
       </c>
       <c r="V39">
-        <v>7.866305839812417</v>
+        <v>7.370552114235566</v>
       </c>
       <c r="W39">
-        <v>9.639546280540639</v>
+        <v>10.00313946779916</v>
       </c>
       <c r="X39">
-        <v>8.477069619658989</v>
+        <v>8.826322276917638</v>
       </c>
       <c r="Y39">
-        <v>0.00395493699828389</v>
+        <v>0.00225299887950046</v>
       </c>
       <c r="Z39">
-        <v>9.934380156631387E-05</v>
+        <v>0.0001286249224093591</v>
       </c>
       <c r="AA39">
-        <v>0.004035530764069311</v>
+        <v>0.002441116107596145</v>
       </c>
       <c r="AB39">
-        <v>4.666294894294418E-05</v>
+        <v>1.910876967320634E-05</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -2462,49 +2462,49 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.764624503694348E-06</v>
+        <v>5.103842737175054E-06</v>
       </c>
       <c r="C40">
-        <v>0.0245982217192993</v>
+        <v>0.02419081951457016</v>
       </c>
       <c r="D40">
-        <v>0.0001130600367139123</v>
+        <v>0.0001253957934646154</v>
       </c>
       <c r="E40">
-        <v>0.02711176169494098</v>
+        <v>0.02636567499587053</v>
       </c>
       <c r="F40">
-        <v>5.39938870731019</v>
+        <v>3.099388708779784</v>
       </c>
       <c r="S40">
-        <v>5.899034617939873E-05</v>
+        <v>5.899066762750154E-05</v>
       </c>
       <c r="T40">
-        <v>0.001576491673721552</v>
+        <v>0.001576487883715214</v>
       </c>
       <c r="U40">
         <v>0.1054</v>
       </c>
       <c r="V40">
-        <v>7.862948429222028</v>
+        <v>7.366137412108007</v>
       </c>
       <c r="W40">
-        <v>9.638336678053118</v>
+        <v>10.0080423618846</v>
       </c>
       <c r="X40">
-        <v>8.479920914724048</v>
+        <v>8.831220222994263</v>
       </c>
       <c r="Y40">
-        <v>0.004017123985327722</v>
+        <v>0.002287262975582575</v>
       </c>
       <c r="Z40">
-        <v>9.993397039923373E-05</v>
+        <v>0.0001302059701551853</v>
       </c>
       <c r="AA40">
-        <v>0.00409986734173264</v>
+        <v>0.002480180742078773</v>
       </c>
       <c r="AB40">
-        <v>4.728444622316988E-05</v>
+        <v>1.937080878067217E-05</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -2512,49 +2512,49 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.751652638378985E-06</v>
+        <v>5.082852401671215E-06</v>
       </c>
       <c r="C41">
-        <v>0.02499961781245643</v>
+        <v>0.0245853346575391</v>
       </c>
       <c r="D41">
-        <v>0.0001152980238000046</v>
+        <v>0.0001280763530209776</v>
       </c>
       <c r="E41">
-        <v>0.02758647378142964</v>
+        <v>0.02681906440345011</v>
       </c>
       <c r="F41">
-        <v>5.39937005620973</v>
+        <v>3.099370057749072</v>
       </c>
       <c r="S41">
-        <v>5.815658439847879E-05</v>
+        <v>5.815690651725565E-05</v>
       </c>
       <c r="T41">
-        <v>0.001582935678113531</v>
+        <v>0.001582931810025445</v>
       </c>
       <c r="U41">
         <v>0.1037</v>
       </c>
       <c r="V41">
-        <v>7.859589892942424</v>
+        <v>7.361700006675162</v>
       </c>
       <c r="W41">
-        <v>9.637157554658831</v>
+        <v>10.01356755509953</v>
       </c>
       <c r="X41">
-        <v>8.482864284866958</v>
+        <v>8.836808111776087</v>
       </c>
       <c r="Y41">
-        <v>0.004081340215080649</v>
+        <v>0.002322624565835483</v>
       </c>
       <c r="Z41">
-        <v>0.0001005485235852515</v>
+        <v>0.0001319599138057105</v>
       </c>
       <c r="AA41">
-        <v>0.004166303126904926</v>
+        <v>0.002520521888526282</v>
       </c>
       <c r="AB41">
-        <v>4.792361889992157E-05</v>
+        <v>1.96322030540494E-05</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -2562,49 +2562,49 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.738233404244202E-06</v>
+        <v>5.061156712689779E-06</v>
       </c>
       <c r="C42">
-        <v>0.02541435647560071</v>
+        <v>0.02499295562928107</v>
       </c>
       <c r="D42">
-        <v>0.0001176249095323628</v>
+        <v>0.0001308715600491822</v>
       </c>
       <c r="E42">
-        <v>0.02807782313031971</v>
+        <v>0.02728796359133668</v>
       </c>
       <c r="F42">
-        <v>5.399351218949573</v>
+        <v>3.099351220561457</v>
       </c>
       <c r="S42">
-        <v>5.732111136624349E-05</v>
+        <v>5.732143416849186E-05</v>
       </c>
       <c r="T42">
-        <v>0.001589513573545176</v>
+        <v>0.00158950962443133</v>
       </c>
       <c r="U42">
         <v>0.102</v>
       </c>
       <c r="V42">
-        <v>7.856234565278498</v>
+        <v>7.357231176971667</v>
       </c>
       <c r="W42">
-        <v>9.636039267456187</v>
+        <v>10.01922272086738</v>
       </c>
       <c r="X42">
-        <v>8.485936051089499</v>
+        <v>8.842439693877663</v>
       </c>
       <c r="Y42">
-        <v>0.004147686743272239</v>
+        <v>0.002359135643369312</v>
       </c>
       <c r="Z42">
-        <v>0.0001011894018923103</v>
+        <v>0.0001337818142309964</v>
       </c>
       <c r="AA42">
-        <v>0.004234942785371676</v>
+        <v>0.002562203383284153</v>
       </c>
       <c r="AB42">
-        <v>4.857912677003937E-05</v>
+        <v>1.990477717568159E-05</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -2612,49 +2612,49 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.724343463022783E-06</v>
+        <v>5.038720067926413E-06</v>
       </c>
       <c r="C43">
-        <v>0.02584311463773746</v>
+        <v>0.02541434688469178</v>
       </c>
       <c r="D43">
-        <v>0.0001200460301201067</v>
+        <v>0.0001337888170704248</v>
       </c>
       <c r="E43">
-        <v>0.02858668678322155</v>
+        <v>0.02777316550574962</v>
       </c>
       <c r="F43">
-        <v>5.399332189300623</v>
+        <v>3.099332190988001</v>
       </c>
       <c r="S43">
-        <v>5.648389494206193E-05</v>
+        <v>5.648421844104793E-05</v>
       </c>
       <c r="T43">
-        <v>0.001596230452172181</v>
+        <v>0.001596226418925495</v>
       </c>
       <c r="U43">
         <v>0.1003</v>
       </c>
       <c r="V43">
-        <v>7.852877919152555</v>
+        <v>7.35272877286677</v>
       </c>
       <c r="W43">
-        <v>9.634971465678381</v>
+        <v>10.02491754072618</v>
       </c>
       <c r="X43">
-        <v>8.489118640233213</v>
+        <v>8.847997427219267</v>
       </c>
       <c r="Y43">
-        <v>0.004216271443973594</v>
+        <v>0.002396853504880132</v>
       </c>
       <c r="Z43">
-        <v>0.0001018580662609565</v>
+        <v>0.0001356534624064085</v>
       </c>
       <c r="AA43">
-        <v>0.004305898101619162</v>
+        <v>0.002605293190167348</v>
       </c>
       <c r="AB43">
-        <v>4.925326245573541E-05</v>
+        <v>2.019131061491396E-05</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -2662,49 +2662,49 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.709957862767394E-06</v>
+        <v>5.015504505151306E-06</v>
       </c>
       <c r="C44">
-        <v>0.02628661582062741</v>
+        <v>0.02585021857551283</v>
       </c>
       <c r="D44">
-        <v>0.0001225671527840767</v>
+        <v>0.0001368361696801815</v>
       </c>
       <c r="E44">
-        <v>0.02911400367956333</v>
+        <v>0.02827551700193105</v>
       </c>
       <c r="F44">
-        <v>5.399312960704113</v>
+        <v>3.099312962470111</v>
       </c>
       <c r="S44">
-        <v>5.564490181701067E-05</v>
+        <v>5.564522602649503E-05</v>
       </c>
       <c r="T44">
-        <v>0.001603091690403917</v>
+        <v>0.001603087569742231</v>
       </c>
       <c r="U44">
         <v>0.09860000000000002</v>
       </c>
       <c r="V44">
-        <v>7.849522609097743</v>
+        <v>7.348191992957521</v>
       </c>
       <c r="W44">
-        <v>9.633976121062885</v>
+        <v>10.03099793914908</v>
       </c>
       <c r="X44">
-        <v>8.492437171691826</v>
+        <v>8.853911361126061</v>
       </c>
       <c r="Y44">
-        <v>0.004287209605658293</v>
+        <v>0.002435839712508988</v>
       </c>
       <c r="Z44">
-        <v>0.000102556686445006</v>
+        <v>0.0001376584386004841</v>
       </c>
       <c r="AA44">
-        <v>0.0043792885298806</v>
+        <v>0.002649863912228597</v>
       </c>
       <c r="AB44">
-        <v>4.994560465136195E-05</v>
+        <v>2.04849939823674E-05</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -2712,49 +2712,49 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.695049869792767E-06</v>
+        <v>4.991469462115216E-06</v>
       </c>
       <c r="C45">
-        <v>0.02674563421830888</v>
+        <v>0.02630133054754498</v>
       </c>
       <c r="D45">
-        <v>0.0001251945203037433</v>
+        <v>0.0001400223783700663</v>
       </c>
       <c r="E45">
-        <v>0.0296607801273709</v>
+        <v>0.02879592338890422</v>
       </c>
       <c r="F45">
-        <v>5.399293526247503</v>
+        <v>3.099293528095427</v>
       </c>
       <c r="S45">
-        <v>5.480409747325358E-05</v>
+        <v>5.480442240751907E-05</v>
       </c>
       <c r="T45">
-        <v>0.001610102970806313</v>
+        <v>0.001610098759259259</v>
       </c>
       <c r="U45">
         <v>0.09690000000000001</v>
       </c>
       <c r="V45">
-        <v>7.846165772409829</v>
+        <v>7.343619559096334</v>
       </c>
       <c r="W45">
-        <v>9.633055668653048</v>
+        <v>10.03742132996441</v>
       </c>
       <c r="X45">
-        <v>8.495888951380669</v>
+        <v>8.860114869890113</v>
       </c>
       <c r="Y45">
-        <v>0.004360624569153262</v>
+        <v>0.002476158682226681</v>
       </c>
       <c r="Z45">
-        <v>0.000103287209588244</v>
+        <v>0.0001397924221906725</v>
       </c>
       <c r="AA45">
-        <v>0.004455241914533744</v>
+        <v>0.00269599336693467</v>
       </c>
       <c r="AB45">
-        <v>5.065761811268514E-05</v>
+        <v>2.078773176788325E-05</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -2762,49 +2762,49 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.679590809530041E-06</v>
+        <v>4.966571556053169E-06</v>
       </c>
       <c r="C46">
-        <v>0.02722099921291611</v>
+        <v>0.02676849676485167</v>
       </c>
       <c r="D46">
-        <v>0.0001279349006346993</v>
+        <v>0.0001433569989944058</v>
       </c>
       <c r="E46">
-        <v>0.03022809587258903</v>
+        <v>0.02933535345519606</v>
       </c>
       <c r="F46">
-        <v>5.399273878638676</v>
+        <v>3.099273880572029</v>
       </c>
       <c r="S46">
-        <v>5.396144610260477E-05</v>
+        <v>5.396177177648588E-05</v>
       </c>
       <c r="T46">
-        <v>0.001617270304768212</v>
+        <v>0.001617265998662847</v>
       </c>
       <c r="U46">
         <v>0.09520000000000002</v>
       </c>
       <c r="V46">
-        <v>7.84280288848979</v>
+        <v>7.339004350149938</v>
       </c>
       <c r="W46">
-        <v>9.632193648112453</v>
+        <v>10.04394344551494</v>
       </c>
       <c r="X46">
-        <v>8.499448439008777</v>
+        <v>8.866298936703837</v>
       </c>
       <c r="Y46">
-        <v>0.004436648450574066</v>
+        <v>0.002517879508298753</v>
       </c>
       <c r="Z46">
-        <v>0.0001040513589997863</v>
+        <v>0.0001420019829579649</v>
       </c>
       <c r="AA46">
-        <v>0.004533895205541262</v>
+        <v>0.002743764896134077</v>
       </c>
       <c r="AB46">
-        <v>5.139251809359013E-05</v>
+        <v>2.110591507990964E-05</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -2812,49 +2812,49 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5.66354992392089E-06</v>
+        <v>4.940764395597018E-06</v>
       </c>
       <c r="C47">
-        <v>0.02771360038223032</v>
+        <v>0.02725259021513999</v>
       </c>
       <c r="D47">
-        <v>0.0001307956421320674</v>
+        <v>0.0001468504728082029</v>
       </c>
       <c r="E47">
-        <v>0.03081711084703074</v>
+        <v>0.02989484504137553</v>
       </c>
       <c r="F47">
-        <v>5.399254010177743</v>
+        <v>3.099254012200242</v>
       </c>
       <c r="S47">
-        <v>5.311691052147802E-05</v>
+        <v>5.311723695039283E-05</v>
       </c>
       <c r="T47">
-        <v>0.00162460005736102</v>
+        <v>0.001624595652806078</v>
       </c>
       <c r="U47">
         <v>0.09350000000000001</v>
       </c>
       <c r="V47">
-        <v>7.839439010754812</v>
+        <v>7.334345084820889</v>
       </c>
       <c r="W47">
-        <v>9.631407285132713</v>
+        <v>10.05039926902921</v>
       </c>
       <c r="X47">
-        <v>8.503134571299752</v>
+        <v>8.872260953880476</v>
       </c>
       <c r="Y47">
-        <v>0.004515422943148144</v>
+        <v>0.002561077281486768</v>
       </c>
       <c r="Z47">
-        <v>0.0001048517250945788</v>
+        <v>0.0001442493827036754</v>
       </c>
       <c r="AA47">
-        <v>0.004615395254403947</v>
+        <v>0.002793267786698699</v>
       </c>
       <c r="AB47">
-        <v>5.215060586680254E-05</v>
+        <v>2.14441191599774E-05</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -2862,49 +2862,49 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.646894119330801E-06</v>
+        <v>4.913998220981219E-06</v>
       </c>
       <c r="C48">
-        <v>0.02822439306260251</v>
+        <v>0.02775454835851651</v>
       </c>
       <c r="D48">
-        <v>0.0001337847378031434</v>
+        <v>0.0001505142331234863</v>
       </c>
       <c r="E48">
-        <v>0.03142907260676683</v>
+        <v>0.03047551110893997</v>
       </c>
       <c r="F48">
-        <v>5.399233912725485</v>
+        <v>3.099233914841077</v>
       </c>
       <c r="S48">
-        <v>5.227045212167481E-05</v>
+        <v>5.227077932165953E-05</v>
       </c>
       <c r="T48">
-        <v>0.001632098976140491</v>
+        <v>0.0016320944690091</v>
       </c>
       <c r="U48">
         <v>0.09180000000000001</v>
       </c>
       <c r="V48">
-        <v>7.836066000516688</v>
+        <v>7.329644595202107</v>
       </c>
       <c r="W48">
-        <v>9.630714762177266</v>
+        <v>10.0571958243424</v>
       </c>
       <c r="X48">
-        <v>8.506961135787368</v>
+        <v>8.878490934421395</v>
       </c>
       <c r="Y48">
-        <v>0.004597100187926914</v>
+        <v>0.002605833353686455</v>
       </c>
       <c r="Z48">
-        <v>0.0001056910261458562</v>
+        <v>0.000146638829524519</v>
       </c>
       <c r="AA48">
-        <v>0.004699899784932413</v>
+        <v>0.002844597854616082</v>
       </c>
       <c r="AB48">
-        <v>5.293251756105258E-05</v>
+        <v>2.179467629387043E-05</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -2912,49 +2912,49 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.629587794330738E-06</v>
+        <v>4.886219682000547E-06</v>
       </c>
       <c r="C49">
-        <v>0.02875440454042891</v>
+        <v>0.02827537919107109</v>
       </c>
       <c r="D49">
-        <v>0.0001369108958974628</v>
+        <v>0.0001543608226614882</v>
       </c>
       <c r="E49">
-        <v>0.03206532466786278</v>
+        <v>0.03107854654707149</v>
       </c>
       <c r="F49">
-        <v>5.39921357766935</v>
+        <v>3.09921357988223</v>
       </c>
       <c r="S49">
-        <v>5.142203077690322E-05</v>
+        <v>5.142235876464908E-05</v>
       </c>
       <c r="T49">
-        <v>0.001639774221355606</v>
+        <v>0.001639769607266279</v>
       </c>
       <c r="U49">
         <v>0.09010000000000001</v>
       </c>
       <c r="V49">
-        <v>7.832690668191772</v>
+        <v>7.324898145154984</v>
       </c>
       <c r="W49">
-        <v>9.630102756114297</v>
+        <v>10.06417427263178</v>
       </c>
       <c r="X49">
-        <v>8.510908643530072</v>
+        <v>8.884788220587941</v>
       </c>
       <c r="Y49">
-        <v>0.004681843757017123</v>
+        <v>0.002652233250368755</v>
       </c>
       <c r="Z49">
-        <v>0.0001065716229124618</v>
+        <v>0.0001491362899635165</v>
       </c>
       <c r="AA49">
-        <v>0.004787578412618665</v>
+        <v>0.002897858291942917</v>
       </c>
       <c r="AB49">
-        <v>5.374153756971601E-05</v>
+        <v>2.216230874270662E-05</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -2962,49 +2962,49 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.611592597534295E-06</v>
+        <v>4.8573715107384E-06</v>
       </c>
       <c r="C50">
-        <v>0.0293047409566699</v>
+        <v>0.0288161680058482</v>
       </c>
       <c r="D50">
-        <v>0.000140183621025718</v>
+        <v>0.0001584040302390229</v>
       </c>
       <c r="E50">
-        <v>0.03272731576864261</v>
+        <v>0.03170523566899154</v>
       </c>
       <c r="F50">
-        <v>5.39919299588624</v>
+        <v>3.09919299820087</v>
       </c>
       <c r="S50">
-        <v>5.057160473611545E-05</v>
+        <v>5.057193352900891E-05</v>
       </c>
       <c r="T50">
-        <v>0.001647633398927178</v>
+        <v>0.001647628673222871</v>
       </c>
       <c r="U50">
         <v>0.08840000000000001</v>
       </c>
       <c r="V50">
-        <v>7.829302221097413</v>
+        <v>7.320101971817035</v>
       </c>
       <c r="W50">
-        <v>9.629563014406996</v>
+        <v>10.07137348689061</v>
       </c>
       <c r="X50">
-        <v>8.514962626991675</v>
+        <v>8.891192858023851</v>
       </c>
       <c r="Y50">
-        <v>0.004769829759596059</v>
+        <v>0.002700369730376549</v>
       </c>
       <c r="Z50">
-        <v>0.000107496058434189</v>
+        <v>0.0001517573053494965</v>
       </c>
       <c r="AA50">
-        <v>0.004878613737138837</v>
+        <v>0.00295316013777369</v>
       </c>
       <c r="AB50">
-        <v>5.458069924930639E-05</v>
+        <v>2.254755390577947E-05</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -3012,49 +3012,49 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.592867133087278E-06</v>
+        <v>4.827392119746769E-06</v>
       </c>
       <c r="C51">
-        <v>0.02987659502207469</v>
+        <v>0.02937808494654642</v>
       </c>
       <c r="D51">
-        <v>0.0001436133070332708</v>
+        <v>0.0001626590492070247</v>
       </c>
       <c r="E51">
-        <v>0.0334166101910578</v>
+        <v>0.03235696049846872</v>
       </c>
       <c r="F51">
-        <v>5.39917215770123</v>
+        <v>3.099172160122367</v>
       </c>
       <c r="S51">
-        <v>4.971913052844902E-05</v>
+        <v>4.971946014461508E-05</v>
       </c>
       <c r="T51">
-        <v>0.00165568459754108</v>
+        <v>0.001655679755266088</v>
       </c>
       <c r="U51">
         <v>0.08670000000000001</v>
       </c>
       <c r="V51">
-        <v>7.825904466147382</v>
+        <v>7.315253000762462</v>
       </c>
       <c r="W51">
-        <v>9.629139838904843</v>
+        <v>10.0789378001594</v>
       </c>
       <c r="X51">
-        <v>8.519168769695117</v>
+        <v>8.897865519184309</v>
       </c>
       <c r="Y51">
-        <v>0.004861248067461978</v>
+        <v>0.002750342523024138</v>
       </c>
       <c r="Z51">
-        <v>0.0001084684949702656</v>
+        <v>0.0001545466092131368</v>
       </c>
       <c r="AA51">
-        <v>0.004973202620234711</v>
+        <v>0.003010623129614237</v>
       </c>
       <c r="AB51">
-        <v>5.5448889392711E-05</v>
+        <v>2.294882858010389E-05</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -3062,49 +3062,49 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.572110120632794E-06</v>
+        <v>4.794110478034766E-06</v>
       </c>
       <c r="C52">
-        <v>0.03047125465637552</v>
+        <v>0.02996239346449321</v>
       </c>
       <c r="D52">
-        <v>0.0001472406108859193</v>
+        <v>0.0001672084669759185</v>
       </c>
       <c r="E52">
-        <v>0.03413402180747192</v>
+        <v>0.03303378753812726</v>
       </c>
       <c r="F52">
-        <v>5.398089868892739</v>
+        <v>3.098089874591352</v>
       </c>
       <c r="S52">
-        <v>4.886456289918886E-05</v>
+        <v>4.88648933575382E-05</v>
       </c>
       <c r="T52">
-        <v>0.003743856970232864</v>
+        <v>0.00374384580095027</v>
       </c>
       <c r="U52">
         <v>0.08500000000000001</v>
       </c>
       <c r="V52">
-        <v>7.822497740981772</v>
+        <v>7.310344879082773</v>
       </c>
       <c r="W52">
-        <v>9.628930097568881</v>
+        <v>10.0861896703897</v>
       </c>
       <c r="X52">
-        <v>8.523495665279544</v>
+        <v>8.903824572397159</v>
       </c>
       <c r="Y52">
-        <v>0.004956303658911813</v>
+        <v>0.002802258441300358</v>
       </c>
       <c r="Z52">
-        <v>0.000109510594077719</v>
+        <v>0.0001573412934134707</v>
       </c>
       <c r="AA52">
-        <v>0.005071557694851551</v>
+        <v>0.00307037661563492</v>
       </c>
       <c r="AB52">
-        <v>5.635477308011506E-05</v>
+        <v>2.339161927247665E-05</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -3112,49 +3112,49 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6.511739660076068E-06</v>
+        <v>5.721097708021546E-06</v>
       </c>
       <c r="C53">
-        <v>0.03109011208587531</v>
+        <v>0.03057045846444254</v>
       </c>
       <c r="D53">
-        <v>0.0001294385243997364</v>
+        <v>0.0001450473027149254</v>
       </c>
       <c r="E53">
-        <v>0.03340500002757727</v>
+        <v>0.03256027351822536</v>
       </c>
       <c r="F53">
-        <v>6.097350417916628</v>
+        <v>3.897350425866496</v>
       </c>
       <c r="S53">
-        <v>9.030858370959505E-05</v>
+        <v>9.030920696313266E-05</v>
       </c>
       <c r="T53">
-        <v>0.001420905797233235</v>
+        <v>0.001420901471291752</v>
       </c>
       <c r="U53">
         <v>0.1715</v>
       </c>
       <c r="V53">
-        <v>7.818736766577848</v>
+        <v>7.304995611948674</v>
       </c>
       <c r="W53">
-        <v>9.618846626696303</v>
+        <v>9.843228566778532</v>
       </c>
       <c r="X53">
-        <v>8.593932871090797</v>
+        <v>8.677052079018827</v>
       </c>
       <c r="Y53">
-        <v>0.005055217803092101</v>
+        <v>0.002856236342277641</v>
       </c>
       <c r="Z53">
-        <v>9.73836710153106E-05</v>
+        <v>0.0001037361825822708</v>
       </c>
       <c r="AA53">
-        <v>0.005173908774887703</v>
+        <v>0.003132559982907623</v>
       </c>
       <c r="AB53">
-        <v>4.701058371788562E-05</v>
+        <v>2.581196707750142E-05</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -3162,49 +3162,49 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6.491720154683036E-06</v>
+        <v>5.692488498578087E-06</v>
       </c>
       <c r="C54">
-        <v>0.03173512611840604</v>
+        <v>0.03120432119697854</v>
       </c>
       <c r="D54">
-        <v>0.0001326733243723001</v>
+        <v>0.0001489185047294528</v>
       </c>
       <c r="E54">
-        <v>0.03413496680311136</v>
+        <v>0.03326285894995824</v>
       </c>
       <c r="F54">
-        <v>6.097332005189638</v>
+        <v>3.897332013243832</v>
       </c>
       <c r="S54">
-        <v>8.869289238773768E-05</v>
+        <v>8.869351730149644E-05</v>
       </c>
       <c r="T54">
-        <v>0.001428281594305982</v>
+        <v>0.001428277154940479</v>
       </c>
       <c r="U54">
         <v>0.168</v>
       </c>
       <c r="V54">
-        <v>7.815454161160026</v>
+        <v>7.301926724982502</v>
       </c>
       <c r="W54">
-        <v>9.619103294405708</v>
+        <v>9.873036352190256</v>
       </c>
       <c r="X54">
-        <v>8.597956665448049</v>
+        <v>8.719301222738171</v>
       </c>
       <c r="Y54">
-        <v>0.005158506014177034</v>
+        <v>0.002913580095604628</v>
       </c>
       <c r="Z54">
-        <v>9.83478221909639E-05</v>
+        <v>0.0001083733800607218</v>
       </c>
       <c r="AA54">
-        <v>0.005280719153870408</v>
+        <v>0.003197283899904084</v>
       </c>
       <c r="AB54">
-        <v>4.780687486570325E-05</v>
+        <v>2.517832627602419E-05</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -3212,49 +3212,49 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6.470831720199989E-06</v>
+        <v>5.662658921828471E-06</v>
       </c>
       <c r="C55">
-        <v>0.03240751873104506</v>
+        <v>0.0318650744457498</v>
       </c>
       <c r="D55">
-        <v>0.0001360718002663859</v>
+        <v>0.0001529986887407645</v>
       </c>
       <c r="E55">
-        <v>0.03489713462649802</v>
+        <v>0.03399594360381684</v>
       </c>
       <c r="F55">
-        <v>6.097313336208772</v>
+        <v>3.897313344372565</v>
       </c>
       <c r="S55">
-        <v>8.70729848590562E-05</v>
+        <v>8.707361147365384E-05</v>
       </c>
       <c r="T55">
-        <v>0.001435852887335487</v>
+        <v>0.001435848329078405</v>
       </c>
       <c r="U55">
         <v>0.1645</v>
       </c>
       <c r="V55">
-        <v>7.812151497157044</v>
+        <v>7.298682635146248</v>
       </c>
       <c r="W55">
-        <v>9.61942246836683</v>
+        <v>9.903879857527592</v>
       </c>
       <c r="X55">
-        <v>8.602053806841992</v>
+        <v>8.75990999013732</v>
       </c>
       <c r="Y55">
-        <v>0.005266168954432058</v>
+        <v>0.00297326534487152</v>
       </c>
       <c r="Z55">
-        <v>9.936096379085985E-05</v>
+        <v>0.0001137463285182975</v>
       </c>
       <c r="AA55">
-        <v>0.005392057712998168</v>
+        <v>0.003264775507853617</v>
       </c>
       <c r="AB55">
-        <v>4.863862798181285E-05</v>
+        <v>2.467686930435993E-05</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -3262,49 +3262,49 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6.449016877046612E-06</v>
+        <v>5.631529973003428E-06</v>
       </c>
       <c r="C56">
-        <v>0.03310907192519243</v>
+        <v>0.03255446739698913</v>
       </c>
       <c r="D56">
-        <v>0.0001396465689319876</v>
+        <v>0.0001573050462174369</v>
       </c>
       <c r="E56">
-        <v>0.03569365682807296</v>
+        <v>0.03476152702583405</v>
       </c>
       <c r="F56">
-        <v>6.097294399738494</v>
+        <v>3.897294408017538</v>
       </c>
       <c r="S56">
-        <v>8.54487600000346E-05</v>
+        <v>8.544938835800499E-05</v>
       </c>
       <c r="T56">
-        <v>0.001443629205852498</v>
+        <v>0.001443624522847258</v>
       </c>
       <c r="U56">
         <v>0.161</v>
       </c>
       <c r="V56">
-        <v>7.808829981828657</v>
+        <v>7.295249101278921</v>
       </c>
       <c r="W56">
-        <v>9.619840323660975</v>
+        <v>9.935011030613836</v>
       </c>
       <c r="X56">
-        <v>8.606256879938512</v>
+        <v>8.7984015591068</v>
       </c>
       <c r="Y56">
-        <v>0.005378490867272084</v>
+        <v>0.003035428801748764</v>
       </c>
       <c r="Z56">
-        <v>0.0001004279617882151</v>
+        <v>0.0001197655821154482</v>
       </c>
       <c r="AA56">
-        <v>0.005508218997455046</v>
+        <v>0.003335212434778601</v>
       </c>
       <c r="AB56">
-        <v>4.950642762295806E-05</v>
+        <v>2.430550090068765E-05</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -3312,49 +3312,49 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6.426213016400802E-06</v>
+        <v>5.59901578116484E-06</v>
       </c>
       <c r="C57">
-        <v>0.03384172582199822</v>
+        <v>0.03327440433811739</v>
       </c>
       <c r="D57">
-        <v>0.0001434115671208044</v>
+        <v>0.0001618566898632196</v>
       </c>
       <c r="E57">
-        <v>0.03652688094470274</v>
+        <v>0.03556178484733469</v>
       </c>
       <c r="F57">
-        <v>6.097275183769457</v>
+        <v>3.897275192169825</v>
       </c>
       <c r="S57">
-        <v>8.382011199910874E-05</v>
+        <v>8.382074214503846E-05</v>
       </c>
       <c r="T57">
-        <v>0.001451620765119946</v>
+        <v>0.001451615951083943</v>
       </c>
       <c r="U57">
         <v>0.1575</v>
       </c>
       <c r="V57">
-        <v>7.805483853637704</v>
+        <v>7.291604529213399</v>
       </c>
       <c r="W57">
-        <v>9.620337051685242</v>
+        <v>9.965144079341552</v>
       </c>
       <c r="X57">
-        <v>8.610545179692146</v>
+        <v>8.833701863852108</v>
       </c>
       <c r="Y57">
-        <v>0.005495781154060614</v>
+        <v>0.003100221317740616</v>
       </c>
       <c r="Z57">
-        <v>0.000101551815209711</v>
+        <v>0.000126198473889579</v>
       </c>
       <c r="AA57">
-        <v>0.005629523721229093</v>
+        <v>0.003408788144420332</v>
       </c>
       <c r="AB57">
-        <v>5.041452503492054E-05</v>
+        <v>2.407546225985047E-05</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -3362,49 +3362,49 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6.402351831650826E-06</v>
+        <v>5.565022873759566E-06</v>
       </c>
       <c r="C58">
-        <v>0.03460759660051815</v>
+        <v>0.03402696223921407</v>
       </c>
       <c r="D58">
-        <v>0.0001473822272661073</v>
+        <v>0.0001666749272992752</v>
       </c>
       <c r="E58">
-        <v>0.03739937088458709</v>
+        <v>0.0363990883219352</v>
       </c>
       <c r="F58">
-        <v>6.097255675446493</v>
+        <v>3.897255683974716</v>
       </c>
       <c r="S58">
-        <v>8.218692997434879E-05</v>
+        <v>8.218756195502484E-05</v>
       </c>
       <c r="T58">
-        <v>0.001459838530929836</v>
+        <v>0.001459833579112992</v>
       </c>
       <c r="U58">
         <v>0.154</v>
       </c>
       <c r="V58">
-        <v>7.802113999014895</v>
+        <v>7.287747904415252</v>
       </c>
       <c r="W58">
-        <v>9.620938573923963</v>
+        <v>9.994077431542664</v>
       </c>
       <c r="X58">
-        <v>8.614938952435111</v>
+        <v>8.866078659585348</v>
       </c>
       <c r="Y58">
-        <v>0.005618377275398135</v>
+        <v>0.003167812746009958</v>
       </c>
       <c r="Z58">
-        <v>0.000102737688319127</v>
+        <v>0.0001329609468715388</v>
       </c>
       <c r="AA58">
-        <v>0.005756321657506233</v>
+        <v>0.003485713432651253</v>
       </c>
       <c r="AB58">
-        <v>5.136481304396538E-05</v>
+        <v>2.396674312888009E-05</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -3412,49 +3412,49 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6.377358609583293E-06</v>
+        <v>5.529449254563608E-06</v>
       </c>
       <c r="C59">
-        <v>0.03540899693477983</v>
+        <v>0.03481441078135163</v>
       </c>
       <c r="D59">
-        <v>0.0001515756832776048</v>
+        <v>0.0001717835851697091</v>
       </c>
       <c r="E59">
-        <v>0.03831393212835867</v>
+        <v>0.03727602643528345</v>
       </c>
       <c r="F59">
-        <v>6.097235860985394</v>
+        <v>3.897235869648509</v>
       </c>
       <c r="S59">
-        <v>8.054909777073181E-05</v>
+        <v>8.054973163530635E-05</v>
       </c>
       <c r="T59">
-        <v>0.001468294296838296</v>
+        <v>0.001468289199976498</v>
       </c>
       <c r="U59">
         <v>0.1505</v>
       </c>
       <c r="V59">
-        <v>7.798719146209307</v>
+        <v>7.283671044811655</v>
       </c>
       <c r="W59">
-        <v>9.621631165480805</v>
+        <v>10.02138250447431</v>
       </c>
       <c r="X59">
-        <v>8.61942369754893</v>
+        <v>8.895419487752347</v>
       </c>
       <c r="Y59">
-        <v>0.00574664796346974</v>
+        <v>0.003238390694827131</v>
       </c>
       <c r="Z59">
-        <v>0.0001039895888453741</v>
+        <v>0.0001399093733020321</v>
       </c>
       <c r="AA59">
-        <v>0.005888995072493728</v>
+        <v>0.003566219169616889</v>
       </c>
       <c r="AB59">
-        <v>5.236178651963926E-05</v>
+        <v>2.397170466382622E-05</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -3462,49 +3462,49 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6.351151529573884E-06</v>
+        <v>5.492183511443357E-06</v>
       </c>
       <c r="C60">
-        <v>0.03624845934552987</v>
+        <v>0.03563923523840357</v>
       </c>
       <c r="D60">
-        <v>0.0001560110086936363</v>
+        <v>0.0001772093875191408</v>
       </c>
       <c r="E60">
-        <v>0.03927364055843515</v>
+        <v>0.03819543111430043</v>
       </c>
       <c r="F60">
-        <v>6.097215725583573</v>
+        <v>3.897215734389173</v>
       </c>
       <c r="S60">
-        <v>7.890649339479497E-05</v>
+        <v>7.890712919496382E-05</v>
       </c>
       <c r="T60">
-        <v>0.00147700076376358</v>
+        <v>0.001476995514026277</v>
       </c>
       <c r="U60">
         <v>0.147</v>
       </c>
       <c r="V60">
-        <v>7.795292465060136</v>
+        <v>7.279375887030191</v>
       </c>
       <c r="W60">
-        <v>9.62241016433418</v>
+        <v>10.04661089484952</v>
       </c>
       <c r="X60">
-        <v>8.623992581766409</v>
+        <v>8.921528562219525</v>
       </c>
       <c r="Y60">
-        <v>0.005880996972389366</v>
+        <v>0.003312164059625347</v>
       </c>
       <c r="Z60">
-        <v>0.0001053122926521993</v>
+        <v>0.0001468703046892347</v>
       </c>
       <c r="AA60">
-        <v>0.006027962531683585</v>
+        <v>0.003650558394972914</v>
       </c>
       <c r="AB60">
-        <v>5.340986327136921E-05</v>
+        <v>2.408687775601659E-05</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -3512,49 +3512,49 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6.323640742338624E-06</v>
+        <v>5.453103629845144E-06</v>
       </c>
       <c r="C61">
-        <v>0.03712876296350149</v>
+        <v>0.03650416269818123</v>
       </c>
       <c r="D61">
-        <v>0.0001607094984741966</v>
+        <v>0.0001829824093470216</v>
       </c>
       <c r="E61">
-        <v>0.04028187539789136</v>
+        <v>0.03916040587059912</v>
       </c>
       <c r="F61">
-        <v>6.097195253315935</v>
+        <v>3.897195262272233</v>
       </c>
       <c r="S61">
-        <v>7.725898869015573E-05</v>
+        <v>7.725962648035705E-05</v>
       </c>
       <c r="T61">
-        <v>0.001485971636046089</v>
+        <v>0.001485966224977111</v>
       </c>
       <c r="U61">
         <v>0.1435</v>
       </c>
       <c r="V61">
-        <v>7.791835969361867</v>
+        <v>7.274867636104276</v>
       </c>
       <c r="W61">
-        <v>9.623288981745972</v>
+        <v>10.06971613859602</v>
       </c>
       <c r="X61">
-        <v>8.628655911277416</v>
+        <v>8.944597501628802</v>
       </c>
       <c r="Y61">
-        <v>0.006021867330431737</v>
+        <v>0.003389366346331106</v>
       </c>
       <c r="Z61">
-        <v>0.0001067119399555478</v>
+        <v>0.0001537490583996127</v>
       </c>
       <c r="AA61">
-        <v>0.006173683328474127</v>
+        <v>0.003739008919783082</v>
       </c>
       <c r="AB61">
-        <v>5.451270303841405E-05</v>
+        <v>2.430327285155355E-05</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -3562,49 +3562,49 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6.294727419561486E-06</v>
+        <v>5.412075791313739E-06</v>
       </c>
       <c r="C62">
-        <v>0.03805296430012717</v>
+        <v>0.03741219220540209</v>
       </c>
       <c r="D62">
-        <v>0.0001656949985292231</v>
+        <v>0.0001891366126957907</v>
       </c>
       <c r="E62">
-        <v>0.04134235708009656</v>
+        <v>0.04017435859792905</v>
       </c>
       <c r="F62">
-        <v>6.097174427018353</v>
+        <v>3.897174436134241</v>
       </c>
       <c r="S62">
-        <v>7.560644888586979E-05</v>
+        <v>7.560708872350354E-05</v>
       </c>
       <c r="T62">
-        <v>0.001495221728164436</v>
+        <v>0.001495216146614978</v>
       </c>
       <c r="U62">
         <v>0.14</v>
       </c>
       <c r="V62">
-        <v>7.78834302370087</v>
+        <v>7.270156956813818</v>
       </c>
       <c r="W62">
-        <v>9.624260731902325</v>
+        <v>10.0906603150052</v>
       </c>
       <c r="X62">
-        <v>8.633405014739143</v>
+        <v>8.964764184526702</v>
       </c>
       <c r="Y62">
-        <v>0.006169746215193642</v>
+        <v>0.003470256778529393</v>
       </c>
       <c r="Z62">
-        <v>0.000108194330065659</v>
+        <v>0.0001604544461839855</v>
       </c>
       <c r="AA62">
-        <v>0.00632666259411002</v>
+        <v>0.00383187656095637</v>
       </c>
       <c r="AB62">
-        <v>5.567580738493407E-05</v>
+        <v>2.461564692629534E-05</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -3612,49 +3612,49 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6.264302621141078E-06</v>
+        <v>5.368952943364014E-06</v>
       </c>
       <c r="C63">
-        <v>0.03902443274375789</v>
+        <v>0.03836662952829199</v>
       </c>
       <c r="D63">
-        <v>0.000170994296322309</v>
+        <v>0.0001957104903325461</v>
       </c>
       <c r="E63">
-        <v>0.04245919084792178</v>
+        <v>0.0412410391277598</v>
       </c>
       <c r="F63">
-        <v>6.097153228157669</v>
+        <v>3.897153237442801</v>
       </c>
       <c r="S63">
-        <v>7.394873196436384E-05</v>
+        <v>7.394937391003418E-05</v>
       </c>
       <c r="T63">
-        <v>0.001504767082570388</v>
+        <v>0.001504761320622919</v>
       </c>
       <c r="U63">
         <v>0.1365</v>
       </c>
       <c r="V63">
-        <v>7.784815898817265</v>
+        <v>7.265253887288199</v>
       </c>
       <c r="W63">
-        <v>9.625365072303145</v>
+        <v>10.10984168613816</v>
       </c>
       <c r="X63">
-        <v>8.638271654068502</v>
+        <v>8.982582893126789</v>
       </c>
       <c r="Y63">
-        <v>0.006325170622504615</v>
+        <v>0.003555123504999788</v>
       </c>
       <c r="Z63">
-        <v>0.0001097681997759835</v>
+        <v>0.0001670236617586393</v>
       </c>
       <c r="AA63">
-        <v>0.006487457127102971</v>
+        <v>0.003929498635675091</v>
       </c>
       <c r="AB63">
-        <v>5.690236174462425E-05</v>
+        <v>2.501298641533078E-05</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -3662,49 +3662,49 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6.232245956536954E-06</v>
+        <v>5.323573114571776E-06</v>
       </c>
       <c r="C64">
-        <v>0.04004689165026935</v>
+        <v>0.03937112739771197</v>
       </c>
       <c r="D64">
-        <v>0.0001766375858018784</v>
+        <v>0.0002027478424580556</v>
       </c>
       <c r="E64">
-        <v>0.04363691709177133</v>
+        <v>0.04236458234039316</v>
       </c>
       <c r="F64">
-        <v>6.097131636681288</v>
+        <v>3.89713164614616</v>
       </c>
       <c r="S64">
-        <v>7.228568816448616E-05</v>
+        <v>7.228633228227107E-05</v>
       </c>
       <c r="T64">
-        <v>0.001514625108421502</v>
+        <v>0.001514619155303055</v>
       </c>
       <c r="U64">
         <v>0.133</v>
       </c>
       <c r="V64">
-        <v>7.781245788158013</v>
+        <v>7.260167365747168</v>
       </c>
       <c r="W64">
-        <v>9.626548537151297</v>
+        <v>10.12726243865274</v>
       </c>
       <c r="X64">
-        <v>8.643209648412894</v>
+        <v>8.998140956235984</v>
       </c>
       <c r="Y64">
-        <v>0.00648873384415537</v>
+        <v>0.003644284027190344</v>
       </c>
       <c r="Z64">
-        <v>0.0001114386382202299</v>
+        <v>0.000173399657235182</v>
       </c>
       <c r="AA64">
-        <v>0.006656682252507138</v>
+        <v>0.004032248258024032</v>
       </c>
       <c r="AB64">
-        <v>5.820170563297394E-05</v>
+        <v>2.549525234188809E-05</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -3712,49 +3712,49 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6.198424066792867E-06</v>
+        <v>5.275757522741128E-06</v>
       </c>
       <c r="C65">
-        <v>0.04112446608444415</v>
+        <v>0.04042973225055667</v>
       </c>
       <c r="D65">
-        <v>0.0001826590219377546</v>
+        <v>0.0002102987161861456</v>
       </c>
       <c r="E65">
-        <v>0.0448805697047575</v>
+        <v>0.04354955785454002</v>
       </c>
       <c r="F65">
-        <v>6.097109630846353</v>
+        <v>3.897109640502406</v>
       </c>
       <c r="S65">
-        <v>7.061715937647952E-05</v>
+        <v>7.061780573423171E-05</v>
       </c>
       <c r="T65">
-        <v>0.001524814738821417</v>
+        <v>0.001524808582804473</v>
       </c>
       <c r="U65">
         <v>0.1295</v>
       </c>
       <c r="V65">
-        <v>7.777630110853692</v>
+        <v>7.254908586452255</v>
       </c>
       <c r="W65">
-        <v>9.627832254182598</v>
+        <v>10.14352466145888</v>
       </c>
       <c r="X65">
-        <v>8.648234763111809</v>
+        <v>9.012130359520555</v>
       </c>
       <c r="Y65">
-        <v>0.006661093174045509</v>
+        <v>0.003738091712864808</v>
       </c>
       <c r="Z65">
-        <v>0.000113215098838699</v>
+        <v>0.0001797189592491113</v>
       </c>
       <c r="AA65">
-        <v>0.006835019564584818</v>
+        <v>0.004140538879799226</v>
       </c>
       <c r="AB65">
-        <v>5.957960494689341E-05</v>
+        <v>2.605236818517643E-05</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -3762,49 +3762,49 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6.162688887916629E-06</v>
+        <v>5.225308431689924E-06</v>
       </c>
       <c r="C66">
-        <v>0.04226173850284711</v>
+        <v>0.04154693873762252</v>
       </c>
       <c r="D66">
-        <v>0.0001890973857603023</v>
+        <v>0.0002184205491837547</v>
       </c>
       <c r="E66">
-        <v>0.04619574396922256</v>
+        <v>0.04480102747512974</v>
       </c>
       <c r="F66">
-        <v>6.097087187027356</v>
+        <v>3.897087196887087</v>
       </c>
       <c r="S66">
-        <v>6.894297829454419E-05</v>
+        <v>6.894362696422623E-05</v>
       </c>
       <c r="T66">
-        <v>0.001535356606367611</v>
+        <v>0.001535350234656409</v>
       </c>
       <c r="U66">
         <v>0.126</v>
       </c>
       <c r="V66">
-        <v>7.773970400316575</v>
+        <v>7.249483184136492</v>
       </c>
       <c r="W66">
-        <v>9.629230150001387</v>
+        <v>10.15858814631817</v>
       </c>
       <c r="X66">
-        <v>8.653358607579705</v>
+        <v>9.02454197616073</v>
       </c>
       <c r="Y66">
-        <v>0.006842978676134586</v>
+        <v>0.003836935400465244</v>
       </c>
       <c r="Z66">
-        <v>0.0001151079372963805</v>
+        <v>0.0001859394917152345</v>
       </c>
       <c r="AA66">
-        <v>0.007023226230130316</v>
+        <v>0.004254830171788505</v>
       </c>
       <c r="AB66">
-        <v>6.104293740309513E-05</v>
+        <v>2.668889094746791E-05</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -3812,49 +3812,49 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6.124875533765446E-06</v>
+        <v>5.172006540840395E-06</v>
       </c>
       <c r="C67">
-        <v>0.0434638139633353</v>
+        <v>0.04272775354300648</v>
       </c>
       <c r="D67">
-        <v>0.0001959968896795447</v>
+        <v>0.0002271795776947547</v>
       </c>
       <c r="E67">
-        <v>0.04758867570106401</v>
+        <v>0.04612461167857874</v>
       </c>
       <c r="F67">
-        <v>6.097064279490116</v>
+        <v>3.897064289567208</v>
       </c>
       <c r="S67">
-        <v>6.726296779300381E-05</v>
+        <v>6.72636188510649E-05</v>
       </c>
       <c r="T67">
-        <v>0.001546273253185966</v>
+        <v>0.001546266651785587</v>
       </c>
       <c r="U67">
         <v>0.1225</v>
       </c>
       <c r="V67">
-        <v>7.770256352399614</v>
+        <v>7.2439001121407</v>
       </c>
       <c r="W67">
-        <v>9.63073382725716</v>
+        <v>10.17288403775396</v>
       </c>
       <c r="X67">
-        <v>8.65857313290495</v>
+        <v>9.035844375658524</v>
       </c>
       <c r="Y67">
-        <v>0.007035203554387107</v>
+        <v>0.003941249569286674</v>
       </c>
       <c r="Z67">
-        <v>0.0001171274495940432</v>
+        <v>0.0001921802705798268</v>
       </c>
       <c r="AA67">
-        <v>0.007222145752779666</v>
+        <v>0.004375634208383963</v>
       </c>
       <c r="AB67">
-        <v>6.260102525938786E-05</v>
+        <v>2.74014232909768E-05</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -3862,49 +3862,49 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6.084799952933037E-06</v>
+        <v>5.11560814808406E-06</v>
       </c>
       <c r="C68">
-        <v>0.04473639681844283</v>
+        <v>0.04397777042433918</v>
       </c>
       <c r="D68">
-        <v>0.0002034081518906047</v>
+        <v>0.0002366525690635215</v>
       </c>
       <c r="E68">
-        <v>0.04906633405201486</v>
+        <v>0.0475265670443126</v>
       </c>
       <c r="F68">
-        <v>6.097040880137185</v>
+        <v>3.897040890446662</v>
       </c>
       <c r="S68">
-        <v>6.557693988785649E-05</v>
+        <v>6.557759341565498E-05</v>
       </c>
       <c r="T68">
-        <v>0.00155758936430767</v>
+        <v>0.001557582517872736</v>
       </c>
       <c r="U68">
         <v>0.119</v>
       </c>
       <c r="V68">
-        <v>7.766485145977067</v>
+        <v>7.238159439020498</v>
       </c>
       <c r="W68">
-        <v>9.632323618083214</v>
+        <v>10.18644026620388</v>
       </c>
       <c r="X68">
-        <v>8.663863356770447</v>
+        <v>9.046075281381384</v>
       </c>
       <c r="Y68">
-        <v>0.007238676380998667</v>
+        <v>0.004051516313366288</v>
       </c>
       <c r="Z68">
-        <v>0.0001192846825298365</v>
+        <v>0.0001984403548962954</v>
       </c>
       <c r="AA68">
-        <v>0.007432720597706732</v>
+        <v>0.004503523407945522</v>
       </c>
       <c r="AB68">
-        <v>6.426492436148508E-05</v>
+        <v>2.819578991975944E-05</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -3912,49 +3912,49 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6.042256067447154E-06</v>
+        <v>5.05584169404746E-06</v>
       </c>
       <c r="C69">
-        <v>0.04608588132348987</v>
+        <v>0.04530325884419602</v>
       </c>
       <c r="D69">
-        <v>0.0002113893901407547</v>
+        <v>0.0002469289845161476</v>
       </c>
       <c r="E69">
-        <v>0.05063653053392004</v>
+        <v>0.04901387646051375</v>
       </c>
       <c r="F69">
-        <v>6.097016958208714</v>
+        <v>3.897016968767111</v>
       </c>
       <c r="S69">
-        <v>6.388469484401596E-05</v>
+        <v>6.38853509282963E-05</v>
       </c>
       <c r="T69">
-        <v>0.001569332045290062</v>
+        <v>0.001569324936949114</v>
       </c>
       <c r="U69">
         <v>0.1155</v>
       </c>
       <c r="V69">
-        <v>7.762656661372229</v>
+        <v>7.23226632554605</v>
       </c>
       <c r="W69">
-        <v>9.63402111607085</v>
+        <v>10.19960355812425</v>
       </c>
       <c r="X69">
-        <v>8.669249372695781</v>
+        <v>9.055591651895712</v>
       </c>
       <c r="Y69">
-        <v>0.00745441552337651</v>
+        <v>0.004168276190895681</v>
       </c>
       <c r="Z69">
-        <v>0.0001215947499014417</v>
+        <v>0.0002048384031707772</v>
       </c>
       <c r="AA69">
-        <v>0.007656007133262649</v>
+        <v>0.004639139396370545</v>
       </c>
       <c r="AB69">
-        <v>6.604454976564804E-05</v>
+        <v>2.907291883663985E-05</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -3962,49 +3962,49 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.997012425925038E-06</v>
+        <v>4.992403767263373E-06</v>
       </c>
       <c r="C70">
-        <v>0.04751945919640703</v>
+        <v>0.04671126915231102</v>
       </c>
       <c r="D70">
-        <v>0.0002200078898610039</v>
+        <v>0.0002581136923712858</v>
       </c>
       <c r="E70">
-        <v>0.05230804773581392</v>
+        <v>0.05059435471489732</v>
       </c>
       <c r="F70">
-        <v>6.096992479938087</v>
+        <v>3.896992490763656</v>
       </c>
       <c r="S70">
-        <v>6.21860200012941E-05</v>
+        <v>6.218667873472743E-05</v>
       </c>
       <c r="T70">
-        <v>0.001581531140528026</v>
+        <v>0.001581523751678819</v>
       </c>
       <c r="U70">
         <v>0.112</v>
       </c>
       <c r="V70">
-        <v>7.758759345064161</v>
+        <v>7.226219183099446</v>
       </c>
       <c r="W70">
-        <v>9.635801391577699</v>
+        <v>10.21238713777959</v>
       </c>
       <c r="X70">
-        <v>8.674713427786161</v>
+        <v>9.064401163144328</v>
       </c>
       <c r="Y70">
-        <v>0.007683566172547607</v>
+        <v>0.004292133621762085</v>
       </c>
       <c r="Z70">
-        <v>0.0001240717851524606</v>
+        <v>0.00021138553872156</v>
       </c>
       <c r="AA70">
-        <v>0.007893193463996931</v>
+        <v>0.00478320397379348</v>
       </c>
       <c r="AB70">
-        <v>6.795423563776777E-05</v>
+        <v>3.004171932838543E-05</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -4012,49 +4012,49 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.948808292762161E-06</v>
+        <v>4.924954501871643E-06</v>
       </c>
       <c r="C71">
-        <v>0.0490452479482311</v>
+        <v>0.04820975803811552</v>
       </c>
       <c r="D71">
-        <v>0.0002293418217692667</v>
+        <v>0.0002703303996486947</v>
       </c>
       <c r="E71">
-        <v>0.05409079192908058</v>
+        <v>0.05227677253803147</v>
       </c>
       <c r="F71">
-        <v>6.096967408148418</v>
+        <v>3.896967419261371</v>
       </c>
       <c r="S71">
-        <v>6.048068854223027E-05</v>
+        <v>6.048135002402787E-05</v>
       </c>
       <c r="T71">
-        <v>0.001594219607875075</v>
+        <v>0.001594211917944829</v>
       </c>
       <c r="U71">
         <v>0.1085</v>
       </c>
       <c r="V71">
-        <v>7.754789833258624</v>
+        <v>7.220016281277948</v>
       </c>
       <c r="W71">
-        <v>9.637675584890845</v>
+        <v>10.22520228098351</v>
       </c>
       <c r="X71">
-        <v>8.680269819903371</v>
+        <v>9.072908932381305</v>
       </c>
       <c r="Y71">
-        <v>0.007927420830205515</v>
+        <v>0.004423770656698875</v>
       </c>
       <c r="Z71">
-        <v>0.0001267344693653634</v>
+        <v>0.0002182506013227991</v>
       </c>
       <c r="AA71">
-        <v>0.008145620535879484</v>
+        <v>0.004936531788453644</v>
       </c>
       <c r="AB71">
-        <v>7.000793908672399E-05</v>
+        <v>3.110475799873635E-05</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -4062,49 +4062,49 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5.897348949322618E-06</v>
+        <v>4.853112104475035E-06</v>
       </c>
       <c r="C72">
-        <v>0.05067244481911316</v>
+        <v>0.04980773895939775</v>
       </c>
       <c r="D72">
-        <v>0.0002394825131276707</v>
+        <v>0.0002837260408435815</v>
       </c>
       <c r="E72">
-        <v>0.05599597470320303</v>
+        <v>0.05407100272727965</v>
       </c>
       <c r="F72">
-        <v>6.096941701780588</v>
+        <v>3.896941713203369</v>
       </c>
       <c r="S72">
-        <v>5.87684580444129E-05</v>
+        <v>5.8769122381027E-05</v>
       </c>
       <c r="T72">
-        <v>0.001607433957012184</v>
+        <v>0.001607425943175449</v>
       </c>
       <c r="U72">
         <v>0.105</v>
       </c>
       <c r="V72">
-        <v>7.750743132066652</v>
+        <v>7.213651900403979</v>
       </c>
       <c r="W72">
-        <v>9.639618745683872</v>
+        <v>10.23773618952889</v>
       </c>
       <c r="X72">
-        <v>8.685907805487611</v>
+        <v>9.080785886202179</v>
       </c>
       <c r="Y72">
-        <v>0.008187443708900188</v>
+        <v>0.004563954658544745</v>
       </c>
       <c r="Z72">
-        <v>0.0001296019201581554</v>
+        <v>0.0002253353605920083</v>
       </c>
       <c r="AA72">
-        <v>0.008414807622439244</v>
+        <v>0.005100046022802142</v>
       </c>
       <c r="AB72">
-        <v>7.222388611525249E-05</v>
+        <v>3.228111099261806E-05</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -4112,49 +4112,49 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.842300099287235E-06</v>
+        <v>4.77644643237325E-06</v>
       </c>
       <c r="C73">
-        <v>0.05241151248483678</v>
+        <v>0.05151546354279615</v>
       </c>
       <c r="D73">
-        <v>0.00025053730699075</v>
+        <v>0.000298476443377754</v>
       </c>
       <c r="E73">
-        <v>0.05803633018133797</v>
+        <v>0.05598819297146874</v>
       </c>
       <c r="F73">
-        <v>6.096915315337813</v>
+        <v>3.896915327095446</v>
       </c>
       <c r="S73">
-        <v>5.704906881183316E-05</v>
+        <v>5.704973611775917E-05</v>
       </c>
       <c r="T73">
-        <v>0.001621214765954378</v>
+        <v>0.001621206402799263</v>
       </c>
       <c r="U73">
         <v>0.1015</v>
       </c>
       <c r="V73">
-        <v>7.746610528215543</v>
+        <v>7.207121336404395</v>
       </c>
       <c r="W73">
-        <v>9.641609903927794</v>
+        <v>10.25025381374738</v>
       </c>
       <c r="X73">
-        <v>8.691622719892614</v>
+        <v>9.088282975206448</v>
       </c>
       <c r="Y73">
-        <v>0.008465300322305082</v>
+        <v>0.004713562220543113</v>
       </c>
       <c r="Z73">
-        <v>0.0001326964877882886</v>
+        <v>0.0002327689918851421</v>
       </c>
       <c r="AA73">
-        <v>0.008702482923691792</v>
+        <v>0.005274796537002469</v>
       </c>
       <c r="AB73">
-        <v>7.462279108524136E-05</v>
+        <v>3.358063703293443E-05</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -4162,49 +4162,49 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.783281148750954E-06</v>
+        <v>4.694471396608602E-06</v>
       </c>
       <c r="C74">
-        <v>0.05427440445547414</v>
+        <v>0.05334464165348966</v>
       </c>
       <c r="D74">
-        <v>0.0002626331947795652</v>
+        <v>0.000314793724852812</v>
       </c>
       <c r="E74">
-        <v>0.0602263759663902</v>
+        <v>0.05804097095740766</v>
       </c>
       <c r="F74">
-        <v>6.096888198225781</v>
+        <v>3.896888210346256</v>
       </c>
       <c r="S74">
-        <v>5.532224205447891E-05</v>
+        <v>5.53229124531798E-05</v>
       </c>
       <c r="T74">
-        <v>0.001635607296693763</v>
+        <v>0.001635598555824866</v>
       </c>
       <c r="U74">
         <v>0.098</v>
       </c>
       <c r="V74">
-        <v>7.742385357615556</v>
+        <v>7.200420089643023</v>
       </c>
       <c r="W74">
-        <v>9.643669679729875</v>
+        <v>10.26275718370845</v>
       </c>
       <c r="X74">
-        <v>8.697444198797351</v>
+        <v>9.09538472086504</v>
       </c>
       <c r="Y74">
-        <v>0.008762893316394968</v>
+        <v>0.004873590550138042</v>
       </c>
       <c r="Z74">
-        <v>0.0001360468578110117</v>
+        <v>0.000240586804896913</v>
       </c>
       <c r="AA74">
-        <v>0.009010620785570597</v>
+        <v>0.005461982819144237</v>
       </c>
       <c r="AB74">
-        <v>7.722590090055037E-05</v>
+        <v>3.502154036058204E-05</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -4212,49 +4212,49 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.719857170617602E-06</v>
+        <v>4.606636053708315E-06</v>
       </c>
       <c r="C75">
-        <v>0.05627484042809246</v>
+        <v>0.05530871009529104</v>
       </c>
       <c r="D75">
-        <v>0.0002759214729102725</v>
+        <v>0.0003329360627290676</v>
       </c>
       <c r="E75">
-        <v>0.06258272823774219</v>
+        <v>0.0602436888028625</v>
       </c>
       <c r="F75">
-        <v>6.096860293967092</v>
+        <v>3.896860306481846</v>
       </c>
       <c r="S75">
-        <v>5.358767776463315E-05</v>
+        <v>5.358835138960913E-05</v>
       </c>
       <c r="T75">
-        <v>0.001650662228950848</v>
+        <v>0.001650653078514073</v>
       </c>
       <c r="U75">
         <v>0.0945</v>
       </c>
       <c r="V75">
-        <v>7.738059547924745</v>
+        <v>7.193537596411463</v>
       </c>
       <c r="W75">
-        <v>9.645675756441664</v>
+        <v>10.27513052666596</v>
       </c>
       <c r="X75">
-        <v>8.703312000202809</v>
+        <v>9.101960954242788</v>
       </c>
       <c r="Y75">
-        <v>0.009082406148194375</v>
+        <v>0.005045183281443269</v>
       </c>
       <c r="Z75">
-        <v>0.000139677166500727</v>
+        <v>0.0002487790785404184</v>
       </c>
       <c r="AA75">
-        <v>0.009341487262780597</v>
+        <v>0.005662981385025113</v>
       </c>
       <c r="AB75">
-        <v>8.006644242418971E-05</v>
+        <v>3.662834343090199E-05</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -4262,49 +4262,49 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.649536485078798E-06</v>
+        <v>4.509398249593517E-06</v>
       </c>
       <c r="C76">
-        <v>0.05842864500329177</v>
+        <v>0.05742316294269727</v>
       </c>
       <c r="D76">
-        <v>0.0002906746445226545</v>
+        <v>0.0003534280078103797</v>
       </c>
       <c r="E76">
-        <v>0.06512198177117273</v>
+        <v>0.06260919518661702</v>
       </c>
       <c r="F76">
-        <v>6.095141887146016</v>
+        <v>3.895141909820077</v>
       </c>
       <c r="S76">
-        <v>5.184505218594251E-05</v>
+        <v>5.184572918197468E-05</v>
       </c>
       <c r="T76">
-        <v>0.00390408393484965</v>
+        <v>0.003904061453850148</v>
       </c>
       <c r="U76">
         <v>0.091</v>
       </c>
       <c r="V76">
-        <v>7.733622363060656</v>
+        <v>7.186467686613476</v>
       </c>
       <c r="W76">
-        <v>9.647925614526562</v>
+        <v>10.28690549477932</v>
       </c>
       <c r="X76">
-        <v>8.709320657699408</v>
+        <v>9.107324462357422</v>
       </c>
       <c r="Y76">
-        <v>0.0094263572628749</v>
+        <v>0.005229660366170301</v>
       </c>
       <c r="Z76">
-        <v>0.0001436727118372434</v>
+        <v>0.0002572135008903903</v>
       </c>
       <c r="AA76">
-        <v>0.009697695755871228</v>
+        <v>0.005879379578932584</v>
       </c>
       <c r="AB76">
-        <v>8.318232169559237E-05</v>
+        <v>3.846099161524892E-05</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -4312,49 +4312,49 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>8.809676158473558E-06</v>
+        <v>6.101098204271538E-06</v>
       </c>
       <c r="C77">
-        <v>0.06075416381764254</v>
+        <v>0.05970595234009275</v>
       </c>
       <c r="D77">
-        <v>0.0001941690863198217</v>
+        <v>0.0002518212764019373</v>
       </c>
       <c r="E77">
-        <v>0.06701318355758262</v>
+        <v>0.06389665711953474</v>
       </c>
       <c r="F77">
-        <v>6.364069930362401</v>
+        <v>6.494069959458002</v>
       </c>
       <c r="S77">
-        <v>8.957186174354999E-05</v>
+        <v>8.957307857266419E-05</v>
       </c>
       <c r="T77">
-        <v>0.001400690197257249</v>
+        <v>0.001400681806444358</v>
       </c>
       <c r="U77">
         <v>0.17</v>
       </c>
       <c r="V77">
-        <v>7.728929858570456</v>
+        <v>7.177950029730115</v>
       </c>
       <c r="W77">
-        <v>9.38567253361107</v>
+        <v>9.863886464603024</v>
       </c>
       <c r="X77">
-        <v>8.735257196596633</v>
+        <v>8.797903576067394</v>
       </c>
       <c r="Y77">
-        <v>0.009797664644916406</v>
+        <v>0.005428558240781498</v>
       </c>
       <c r="Z77">
-        <v>9.862266307155315E-05</v>
+        <v>0.0001265444783126841</v>
       </c>
       <c r="AA77">
-        <v>0.01008227629323825</v>
+        <v>0.006113016322425277</v>
       </c>
       <c r="AB77">
-        <v>6.67632600763163E-05</v>
+        <v>4.073689212434603E-05</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -4362,49 +4362,49 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>8.692288471194131E-06</v>
+        <v>6.027929704979198E-06</v>
       </c>
       <c r="C78">
-        <v>0.06327749693144766</v>
+        <v>0.06218320780107986</v>
       </c>
       <c r="D78">
-        <v>0.000205410478536496</v>
+        <v>0.0002658715285493705</v>
       </c>
       <c r="E78">
-        <v>0.06995100166780421</v>
+        <v>0.06665588332022192</v>
       </c>
       <c r="F78">
-        <v>6.364044397676546</v>
+        <v>6.494044427201293</v>
       </c>
       <c r="S78">
-        <v>8.642515509086922E-05</v>
+        <v>8.642637853682541E-05</v>
       </c>
       <c r="T78">
-        <v>0.001415183789580926</v>
+        <v>0.001415174955800657</v>
       </c>
       <c r="U78">
         <v>0.1632</v>
       </c>
       <c r="V78">
-        <v>7.72553166629892</v>
+        <v>7.174324736022525</v>
       </c>
       <c r="W78">
-        <v>9.39174584571148</v>
+        <v>10.01229907239178</v>
       </c>
       <c r="X78">
-        <v>8.742839345260371</v>
+        <v>8.943531911230485</v>
       </c>
       <c r="Y78">
-        <v>0.01020179139415994</v>
+        <v>0.005649475480884365</v>
       </c>
       <c r="Z78">
-        <v>0.0001018690766091189</v>
+        <v>0.0001554373627508388</v>
       </c>
       <c r="AA78">
-        <v>0.01049958933628667</v>
+        <v>0.006366027965354483</v>
       </c>
       <c r="AB78">
-        <v>6.92888299699477E-05</v>
+        <v>3.716410110121147E-05</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -4412,49 +4412,49 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>8.564685907449182E-06</v>
+        <v>5.948409528856455E-06</v>
       </c>
       <c r="C79">
-        <v>0.06601976155983511</v>
+        <v>0.06487526589988554</v>
       </c>
       <c r="D79">
-        <v>0.0002179914690696766</v>
+        <v>0.0002815484411043774</v>
       </c>
       <c r="E79">
-        <v>0.07314879080833543</v>
+        <v>0.06965874106330648</v>
       </c>
       <c r="F79">
-        <v>6.36401795455764</v>
+        <v>6.4940179845551</v>
       </c>
       <c r="S79">
-        <v>8.326198742245202E-05</v>
+        <v>8.326321782220285E-05</v>
       </c>
       <c r="T79">
-        <v>0.001430459657934324</v>
+        <v>0.00143045033724356</v>
       </c>
       <c r="U79">
         <v>0.1564</v>
       </c>
       <c r="V79">
-        <v>7.721985633046134</v>
+        <v>7.16975065787684</v>
       </c>
       <c r="W79">
-        <v>9.397884247887333</v>
+        <v>10.14340215331616</v>
       </c>
       <c r="X79">
-        <v>8.750496700116615</v>
+        <v>9.067509318767376</v>
       </c>
       <c r="Y79">
-        <v>0.01064091845144476</v>
+        <v>0.00588834670341191</v>
       </c>
       <c r="Z79">
-        <v>0.0001054385746824218</v>
+        <v>0.0001930266499144234</v>
       </c>
       <c r="AA79">
-        <v>0.01095308066264826</v>
+        <v>0.006641195959452451</v>
       </c>
       <c r="AB79">
-        <v>7.208830784939668E-05</v>
+        <v>3.536531935803893E-05</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -4462,49 +4462,49 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8.425515230315106E-06</v>
+        <v>5.861687301719083E-06</v>
       </c>
       <c r="C80">
-        <v>0.06901075110941536</v>
+        <v>0.06781134396619377</v>
       </c>
       <c r="D80">
-        <v>0.000232161190387814</v>
+        <v>0.0002991473722445335</v>
       </c>
       <c r="E80">
-        <v>0.07664144421775547</v>
+        <v>0.0729382672242915</v>
       </c>
       <c r="F80">
-        <v>6.3639905138347</v>
+        <v>6.493990544355028</v>
       </c>
       <c r="S80">
-        <v>8.008154946601722E-05</v>
+        <v>8.008278719031029E-05</v>
       </c>
       <c r="T80">
-        <v>0.001446597237294815</v>
+        <v>0.001446587379164349</v>
       </c>
       <c r="U80">
         <v>0.1496</v>
       </c>
       <c r="V80">
-        <v>7.718264385348118</v>
+        <v>7.164038669867483</v>
       </c>
       <c r="W80">
-        <v>9.403655897315954</v>
+        <v>10.24722009833397</v>
       </c>
       <c r="X80">
-        <v>8.75810305619726</v>
+        <v>9.163183655067304</v>
       </c>
       <c r="Y80">
-        <v>0.0111198039003885</v>
+        <v>0.006147224887661796</v>
       </c>
       <c r="Z80">
-        <v>0.0001093648466888756</v>
+        <v>0.0002333478118676601</v>
       </c>
       <c r="AA80">
-        <v>0.01144767122423003</v>
+        <v>0.006941460988547653</v>
       </c>
       <c r="AB80">
-        <v>7.522013778575289E-05</v>
+        <v>3.488465036912693E-05</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -4512,49 +4512,49 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>8.273181577610631E-06</v>
+        <v>5.766756981081534E-06</v>
       </c>
       <c r="C81">
-        <v>0.07228592205794049</v>
+        <v>0.07102621047066755</v>
       </c>
       <c r="D81">
-        <v>0.000248233572084702</v>
+        <v>0.0003190389180443745</v>
       </c>
       <c r="E81">
-        <v>0.08047016386566427</v>
+        <v>0.07653361670881058</v>
       </c>
       <c r="F81">
-        <v>6.363961975257521</v>
+        <v>6.493962006358816</v>
       </c>
       <c r="S81">
-        <v>7.688295333202069E-05</v>
+        <v>7.688419879060746E-05</v>
       </c>
       <c r="T81">
-        <v>0.001463688165475891</v>
+        <v>0.001463677711437413</v>
       </c>
       <c r="U81">
         <v>0.1428</v>
       </c>
       <c r="V81">
-        <v>7.714363963651106</v>
+        <v>7.157160096688756</v>
       </c>
       <c r="W81">
-        <v>9.409119932271754</v>
+        <v>10.32185340617997</v>
       </c>
       <c r="X81">
-        <v>8.765764358837997</v>
+        <v>9.230075147855251</v>
       </c>
       <c r="Y81">
-        <v>0.01164411052199325</v>
+        <v>0.006428838081747231</v>
       </c>
       <c r="Z81">
-        <v>0.000113706146997356</v>
+        <v>0.0002700273264238223</v>
       </c>
       <c r="AA81">
-        <v>0.01198921651406071</v>
+        <v>0.007270345576079963</v>
       </c>
       <c r="AB81">
-        <v>7.873257646263211E-05</v>
+        <v>3.538643649578632E-05</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -4562,49 +4562,49 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>8.105794472642204E-06</v>
+        <v>5.662420553930007E-06</v>
       </c>
       <c r="C82">
-        <v>0.07588780648223328</v>
+        <v>0.07456156904829872</v>
       </c>
       <c r="D82">
-        <v>0.0002666095886528676</v>
+        <v>0.0003416942603917847</v>
       </c>
       <c r="E82">
-        <v>0.08468389591895857</v>
+        <v>0.0804915121229582</v>
       </c>
       <c r="F82">
-        <v>6.36393222277324</v>
+        <v>6.493932254523274</v>
       </c>
       <c r="S82">
-        <v>7.36652207470856E-05</v>
+        <v>7.366647439504119E-05</v>
       </c>
       <c r="T82">
-        <v>0.001481838856651103</v>
+        <v>0.001481827738583443</v>
       </c>
       <c r="U82">
         <v>0.136</v>
       </c>
       <c r="V82">
-        <v>7.71026517055993</v>
+        <v>7.14925298976592</v>
       </c>
       <c r="W82">
-        <v>9.413865891314412</v>
+        <v>10.37241264094493</v>
       </c>
       <c r="X82">
-        <v>8.773441880102171</v>
+        <v>9.273628761735296</v>
       </c>
       <c r="Y82">
-        <v>0.01222063074074304</v>
+        <v>0.006736778619513402</v>
       </c>
       <c r="Z82">
-        <v>0.0001185152883876763</v>
+        <v>0.0002999624989820072</v>
       </c>
       <c r="AA82">
-        <v>0.01258474071094062</v>
+        <v>0.007632093533059173</v>
       </c>
       <c r="AB82">
-        <v>8.270228098865195E-05</v>
+        <v>3.663109193166484E-05</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -4612,49 +4612,49 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7.921099122490424E-06</v>
+        <v>5.547241178182221E-06</v>
       </c>
       <c r="C83">
-        <v>0.07986786947663226</v>
+        <v>0.07846787824766224</v>
       </c>
       <c r="D83">
-        <v>0.0002878092649554512</v>
+        <v>0.0003677214343876268</v>
       </c>
       <c r="E83">
-        <v>0.08934115754945693</v>
+        <v>0.08486811426517779</v>
       </c>
       <c r="F83">
-        <v>6.363901121062465</v>
+        <v>6.493901153540887</v>
       </c>
       <c r="S83">
-        <v>7.042726882980028E-05</v>
+        <v>7.042853117526175E-05</v>
       </c>
       <c r="T83">
-        <v>0.001501173780099354</v>
+        <v>0.001501161918033389</v>
       </c>
       <c r="U83">
         <v>0.1292</v>
       </c>
       <c r="V83">
-        <v>7.705936883198724</v>
+        <v>7.140525605423719</v>
       </c>
       <c r="W83">
-        <v>9.417353215404217</v>
+        <v>10.40711931561665</v>
       </c>
       <c r="X83">
-        <v>8.781121459744432</v>
+        <v>9.302009588216428</v>
       </c>
       <c r="Y83">
-        <v>0.01285758418560385</v>
+        <v>0.007075558415330844</v>
       </c>
       <c r="Z83">
-        <v>0.0001238521394364502</v>
+        <v>0.000324032926190803</v>
       </c>
       <c r="AA83">
-        <v>0.01324274273356967</v>
+        <v>0.008031854714171147</v>
       </c>
       <c r="AB83">
-        <v>8.722405644564506E-05</v>
+        <v>3.845272752969957E-05</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -4662,49 +4662,49 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7.716389091946363E-06</v>
+        <v>5.419482571711697E-06</v>
       </c>
       <c r="C84">
-        <v>0.08428898393283653</v>
+        <v>0.08280677584839972</v>
       </c>
       <c r="D84">
-        <v>0.0003125187670597673</v>
+        <v>0.0003979183690069527</v>
       </c>
       <c r="E84">
-        <v>0.09451237834395489</v>
+        <v>0.08973145879142304</v>
       </c>
       <c r="F84">
-        <v>6.363868511083298</v>
+        <v>6.493868544384497</v>
       </c>
       <c r="S84">
-        <v>6.716789265884458E-05</v>
+        <v>6.716916427258369E-05</v>
       </c>
       <c r="T84">
-        <v>0.00152183968471309</v>
+        <v>0.001521826983985332</v>
       </c>
       <c r="U84">
         <v>0.1224</v>
       </c>
       <c r="V84">
-        <v>7.701362036370035</v>
+        <v>7.131151226996937</v>
       </c>
       <c r="W84">
-        <v>9.419059503067963</v>
+        <v>10.43313905953758</v>
       </c>
       <c r="X84">
-        <v>8.788902657110951</v>
+        <v>9.322359640796785</v>
       </c>
       <c r="Y84">
-        <v>0.01356501374372426</v>
+        <v>0.007450643164727514</v>
       </c>
       <c r="Z84">
-        <v>0.0001297918762410621</v>
+        <v>0.0003447864830066169</v>
       </c>
       <c r="AA84">
-        <v>0.01397360488229878</v>
+        <v>0.008475932602317895</v>
       </c>
       <c r="AB84">
-        <v>9.240853519618022E-05</v>
+        <v>4.076225885236327E-05</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -4712,49 +4712,49 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7.488394263866622E-06</v>
+        <v>5.277029618467333E-06</v>
       </c>
       <c r="C85">
-        <v>0.08922877600141164</v>
+        <v>0.08765435570012872</v>
       </c>
       <c r="D85">
-        <v>0.0003416615297494566</v>
+        <v>0.0004333524665915304</v>
       </c>
       <c r="E85">
-        <v>0.1002829208875513</v>
+        <v>0.09516466155687242</v>
       </c>
       <c r="F85">
-        <v>6.363834204255406</v>
+        <v>6.49383423849229</v>
       </c>
       <c r="S85">
-        <v>6.388574408902296E-05</v>
+        <v>6.388702561642902E-05</v>
       </c>
       <c r="T85">
-        <v>0.001544011123853041</v>
+        <v>0.001543997471364051</v>
       </c>
       <c r="U85">
         <v>0.1156</v>
       </c>
       <c r="V85">
-        <v>7.696502694041405</v>
+        <v>7.121223229058911</v>
       </c>
       <c r="W85">
-        <v>9.417653797985295</v>
+        <v>10.45456123554258</v>
       </c>
       <c r="X85">
-        <v>8.796739543148124</v>
+        <v>9.339012799024498</v>
       </c>
       <c r="Y85">
-        <v>0.01435532091239975</v>
+        <v>0.007868634734240508</v>
       </c>
       <c r="Z85">
-        <v>0.0001363974736478171</v>
+        <v>0.0003641632668857842</v>
       </c>
       <c r="AA85">
-        <v>0.01479014584389305</v>
+        <v>0.008972119093109986</v>
       </c>
       <c r="AB85">
-        <v>9.841948659430633E-05</v>
+        <v>4.355446172597979E-05</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -4762,49 +4762,49 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7.233136699815344E-06</v>
+        <v>5.117283598215597E-06</v>
       </c>
       <c r="C86">
-        <v>0.09478422065589047</v>
+        <v>0.09310566840222474</v>
       </c>
       <c r="D86">
-        <v>0.0003765089402255477</v>
+        <v>0.0004754835058636176</v>
       </c>
       <c r="E86">
-        <v>0.1067570024306158</v>
+        <v>0.1012701788570625</v>
       </c>
       <c r="F86">
-        <v>6.363797974774996</v>
+        <v>6.49379801008401</v>
       </c>
       <c r="S86">
-        <v>6.057930500307297E-05</v>
+        <v>6.058059717933633E-05</v>
       </c>
       <c r="T86">
-        <v>0.001567897766190788</v>
+        <v>0.001567883025412096</v>
       </c>
       <c r="U86">
         <v>0.1088</v>
       </c>
       <c r="V86">
-        <v>7.691338410347506</v>
+        <v>7.110775418222612</v>
       </c>
       <c r="W86">
-        <v>9.411325147760822</v>
+        <v>10.47310228171479</v>
       </c>
       <c r="X86">
-        <v>8.804635918224196</v>
+        <v>9.354284642977827</v>
       </c>
       <c r="Y86">
-        <v>0.01524400362732173</v>
+        <v>0.008337664200950173</v>
       </c>
       <c r="Z86">
-        <v>0.0001437426352426214</v>
+        <v>0.0003831138768419637</v>
       </c>
       <c r="AA86">
-        <v>0.01570837874122422</v>
+        <v>0.00953015438257148</v>
       </c>
       <c r="AB86">
-        <v>0.0001054721454712786</v>
+        <v>4.689213340608395E-05</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -4812,49 +4812,49 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6.945744747342693E-06</v>
+        <v>4.937022748481629E-06</v>
       </c>
       <c r="C87">
-        <v>0.1010780681036015</v>
+        <v>0.09928101406198216</v>
       </c>
       <c r="D87">
-        <v>0.0004188586505761723</v>
+        <v>0.0005263599331681995</v>
       </c>
       <c r="E87">
-        <v>0.114062814592705</v>
+        <v>0.1081755299389955</v>
       </c>
       <c r="F87">
-        <v>6.363759549277666</v>
+        <v>6.493759585825638</v>
       </c>
       <c r="S87">
-        <v>5.724685389931277E-05</v>
+        <v>5.72481575689457E-05</v>
       </c>
       <c r="T87">
-        <v>0.001593754248215588</v>
+        <v>0.001593738252412968</v>
       </c>
       <c r="U87">
         <v>0.102</v>
       </c>
       <c r="V87">
-        <v>7.685836292639416</v>
+        <v>7.099812628372474</v>
       </c>
       <c r="W87">
-        <v>9.397685342648005</v>
+        <v>10.48920647082411</v>
       </c>
       <c r="X87">
-        <v>8.81263918529157</v>
+        <v>9.369618027251745</v>
       </c>
       <c r="Y87">
-        <v>0.01625068769346034</v>
+        <v>0.008867967555890722</v>
       </c>
       <c r="Z87">
-        <v>0.0001519395359987822</v>
+        <v>0.0004019489839920439</v>
       </c>
       <c r="AA87">
-        <v>0.01674857251427441</v>
+        <v>0.01016237186584917</v>
       </c>
       <c r="AB87">
-        <v>0.0001138604635108919</v>
+        <v>5.089517159388867E-05</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -4862,49 +4862,49 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6.630908555777949E-06</v>
+        <v>4.736128436511492E-06</v>
       </c>
       <c r="C88">
-        <v>0.1082680116359604</v>
+        <v>0.106334917928326</v>
       </c>
       <c r="D88">
-        <v>0.0004706698708194002</v>
+        <v>0.000588503518115381</v>
       </c>
       <c r="E88">
-        <v>0.1223835164865719</v>
+        <v>0.1160494913861067</v>
       </c>
       <c r="F88">
-        <v>6.361678157763424</v>
+        <v>6.491678217719096</v>
       </c>
       <c r="S88">
-        <v>5.388642307866247E-05</v>
+        <v>5.38877392209978E-05</v>
       </c>
       <c r="T88">
-        <v>0.003947040459233824</v>
+        <v>0.003946997975536667</v>
       </c>
       <c r="U88">
         <v>0.09520000000000002</v>
       </c>
       <c r="V88">
-        <v>7.679943009344777</v>
+        <v>7.088322496183532</v>
       </c>
       <c r="W88">
-        <v>9.371998138019853</v>
+        <v>10.50237081196147</v>
       </c>
       <c r="X88">
-        <v>8.82063033784968</v>
+        <v>9.386135653226226</v>
       </c>
       <c r="Y88">
-        <v>0.01740059827613617</v>
+        <v>0.009472683168169198</v>
       </c>
       <c r="Z88">
-        <v>0.0001609845173910575</v>
+        <v>0.0004203447553870674</v>
       </c>
       <c r="AA88">
-        <v>0.01793676623218609</v>
+        <v>0.01088462020115312</v>
       </c>
       <c r="AB88">
-        <v>0.0001239372852507923</v>
+        <v>5.571451576491409E-05</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -4912,49 +4912,49 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>9.031247924324757E-06</v>
+        <v>5.884142904435978E-06</v>
       </c>
       <c r="C89">
-        <v>0.1165601148486636</v>
+        <v>0.1144692574983422</v>
       </c>
       <c r="D89">
-        <v>0.0003470000184359701</v>
+        <v>0.0005236762535212187</v>
       </c>
       <c r="E89">
-        <v>0.1288358559528561</v>
+        <v>0.1221733371843738</v>
       </c>
       <c r="F89">
-        <v>7.260430317109749</v>
+        <v>7.520430378708986</v>
       </c>
       <c r="S89">
-        <v>8.99379112340433E-05</v>
+        <v>8.993817969802437E-05</v>
       </c>
       <c r="T89">
-        <v>0.001405613609887396</v>
+        <v>0.001405611758515686</v>
       </c>
       <c r="U89">
         <v>0.1703</v>
       </c>
       <c r="V89">
-        <v>7.673204460013058</v>
+        <v>7.075801123733982</v>
       </c>
       <c r="W89">
-        <v>9.035035734732499</v>
+        <v>9.943343563558219</v>
       </c>
       <c r="X89">
-        <v>8.834213897089549</v>
+        <v>8.981227845643412</v>
       </c>
       <c r="Y89">
-        <v>0.01872672241142425</v>
+        <v>0.01016901689222936</v>
       </c>
       <c r="Z89">
-        <v>0.00012491390229357</v>
+        <v>0.0001736288527461694</v>
       </c>
       <c r="AA89">
-        <v>0.01930698384348881</v>
+        <v>0.01171761294618299</v>
       </c>
       <c r="AB89">
-        <v>0.0001085369650727809</v>
+        <v>6.364137461964865E-05</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -4962,49 +4962,49 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8.944827934693947E-06</v>
+        <v>5.841938725516806E-06</v>
       </c>
       <c r="C90">
-        <v>0.117597731945362</v>
+        <v>0.1154866287594567</v>
       </c>
       <c r="D90">
-        <v>0.0003556661325806263</v>
+        <v>0.0005343761348792776</v>
       </c>
       <c r="E90">
-        <v>0.1307932371916928</v>
+        <v>0.1237792492633137</v>
       </c>
       <c r="F90">
-        <v>7.260390208810704</v>
+        <v>7.520390270477942</v>
       </c>
       <c r="S90">
-        <v>8.386772625173944E-05</v>
+        <v>8.386797883591049E-05</v>
       </c>
       <c r="T90">
-        <v>0.001434306788257016</v>
+        <v>0.001434304882194956</v>
       </c>
       <c r="U90">
         <v>0.1572</v>
       </c>
       <c r="V90">
-        <v>7.668374706640015</v>
+        <v>7.070283373012163</v>
       </c>
       <c r="W90">
-        <v>9.072224957680906</v>
+        <v>10.05464126579603</v>
       </c>
       <c r="X90">
-        <v>8.860271488486102</v>
+        <v>9.079934019713164</v>
       </c>
       <c r="Y90">
-        <v>0.02027687312051848</v>
+        <v>0.01100196589551963</v>
       </c>
       <c r="Z90">
-        <v>0.0001333980150603526</v>
+        <v>0.0002047637618284962</v>
       </c>
       <c r="AA90">
-        <v>0.02090685441669015</v>
+        <v>0.01268877724381326</v>
       </c>
       <c r="AB90">
-        <v>0.000115186992062328</v>
+        <v>6.429640670671439E-05</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -5012,49 +5012,49 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>8.851001327505289E-06</v>
+        <v>5.796701454470283E-06</v>
       </c>
       <c r="C91">
-        <v>0.1186539667725042</v>
+        <v>0.1165222346389574</v>
       </c>
       <c r="D91">
-        <v>0.0003652687486157306</v>
+        <v>0.0005460203335647753</v>
       </c>
       <c r="E91">
-        <v>0.1329193556241396</v>
+        <v>0.1255012853057433</v>
       </c>
       <c r="F91">
-        <v>7.260346618223993</v>
+        <v>7.52034667996513</v>
       </c>
       <c r="S91">
-        <v>7.773409680735491E-05</v>
+        <v>7.773433303222079E-05</v>
       </c>
       <c r="T91">
-        <v>0.001466189605216202</v>
+        <v>0.001466187639199607</v>
       </c>
       <c r="U91">
         <v>0.1441</v>
       </c>
       <c r="V91">
-        <v>7.662957938099596</v>
+        <v>7.063721099943883</v>
       </c>
       <c r="W91">
-        <v>9.108818479017323</v>
+        <v>10.1495548319468</v>
       </c>
       <c r="X91">
-        <v>8.887752599808133</v>
+        <v>9.167069023496403</v>
       </c>
       <c r="Y91">
-        <v>0.02210809813010558</v>
+        <v>0.01198352972585519</v>
       </c>
       <c r="Z91">
-        <v>0.0001435067378944523</v>
+        <v>0.000240093031827025</v>
       </c>
       <c r="AA91">
-        <v>0.02279700600074722</v>
+        <v>0.01383645731991386</v>
       </c>
       <c r="AB91">
-        <v>0.0001232192869530186</v>
+        <v>6.654536494142449E-05</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -5062,49 +5062,49 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>8.747940050096482E-06</v>
+        <v>5.747701809632747E-06</v>
       </c>
       <c r="C92">
-        <v>0.1197293185727214</v>
+        <v>0.1175765638599155</v>
       </c>
       <c r="D92">
-        <v>0.0003760564633013264</v>
+        <v>0.0005588425019489254</v>
       </c>
       <c r="E92">
-        <v>0.1352559005146056</v>
+        <v>0.1273673722986931</v>
       </c>
       <c r="F92">
-        <v>7.260298804064202</v>
+        <v>7.520298865886298</v>
       </c>
       <c r="S92">
-        <v>7.153049417916009E-05</v>
+        <v>7.153071353210164E-05</v>
       </c>
       <c r="T92">
-        <v>0.001501962916930672</v>
+        <v>0.001501960884603186</v>
       </c>
       <c r="U92">
         <v>0.131</v>
       </c>
       <c r="V92">
-        <v>7.656834323260114</v>
+        <v>7.055989948812002</v>
       </c>
       <c r="W92">
-        <v>9.144386174404394</v>
+        <v>10.23248550129162</v>
       </c>
       <c r="X92">
-        <v>8.916846670766279</v>
+        <v>9.245410950021077</v>
       </c>
       <c r="Y92">
-        <v>0.0243045572693267</v>
+        <v>0.01315787339525801</v>
       </c>
       <c r="Z92">
-        <v>0.0001557321052431976</v>
+        <v>0.0002796782409529629</v>
       </c>
       <c r="AA92">
-        <v>0.02506438467212665</v>
+        <v>0.01521344851541111</v>
       </c>
       <c r="AB92">
-        <v>0.000133089127378428</v>
+        <v>7.032304845357124E-05</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -5112,49 +5112,49 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>8.633079244030492E-06</v>
+        <v>5.693910323289706E-06</v>
       </c>
       <c r="C93">
-        <v>0.1208243026287711</v>
+        <v>0.1186501209365941</v>
       </c>
       <c r="D93">
-        <v>0.0003883859405928143</v>
+        <v>0.0005731759773506057</v>
       </c>
       <c r="E93">
-        <v>0.1378613913692556</v>
+        <v>0.1294169428347639</v>
       </c>
       <c r="F93">
-        <v>7.260245767402722</v>
+        <v>7.520245829314397</v>
       </c>
       <c r="S93">
-        <v>6.524899096966475E-05</v>
+        <v>6.52491928993918E-05</v>
       </c>
       <c r="T93">
-        <v>0.001542574234602069</v>
+        <v>0.001542572128138195</v>
       </c>
       <c r="U93">
         <v>0.1179</v>
       </c>
       <c r="V93">
-        <v>7.649822554029084</v>
+        <v>7.046943910983564</v>
       </c>
       <c r="W93">
-        <v>9.178013008256718</v>
+        <v>10.30632222223356</v>
       </c>
       <c r="X93">
-        <v>8.947729371144819</v>
+        <v>9.317096088131374</v>
       </c>
       <c r="Y93">
-        <v>0.02698776006533598</v>
+        <v>0.01458878396795857</v>
       </c>
       <c r="Z93">
-        <v>0.0001707871556351716</v>
+        <v>0.0003239656207502844</v>
       </c>
       <c r="AA93">
-        <v>0.02783452862154312</v>
+        <v>0.01689601801173973</v>
       </c>
       <c r="AB93">
-        <v>0.0001454826950215737</v>
+        <v>7.581023941176454E-05</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -5162,49 +5162,49 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>8.502696856375685E-06</v>
+        <v>5.633820778572868E-06</v>
       </c>
       <c r="C94">
-        <v>0.1219394500055135</v>
+        <v>0.119743425982513</v>
       </c>
       <c r="D94">
-        <v>0.0004027892822527302</v>
+        <v>0.0005895153752420781</v>
       </c>
       <c r="E94">
-        <v>0.1408207951859882</v>
+        <v>0.1317077139669121</v>
       </c>
       <c r="F94">
-        <v>7.260186119486622</v>
+        <v>7.52018618149865</v>
       </c>
       <c r="S94">
-        <v>5.887977032361643E-05</v>
+        <v>5.887995423283111E-05</v>
       </c>
       <c r="T94">
-        <v>0.00158934512094116</v>
+        <v>0.00158934293047622</v>
       </c>
       <c r="U94">
         <v>0.1047999999999999</v>
       </c>
       <c r="V94">
-        <v>7.641700074345155</v>
+        <v>7.036403498166876</v>
       </c>
       <c r="W94">
-        <v>9.208968296477595</v>
+        <v>10.37557799530303</v>
       </c>
       <c r="X94">
-        <v>8.980720166806437</v>
+        <v>9.385938415756142</v>
       </c>
       <c r="Y94">
-        <v>0.03033988167904858</v>
+        <v>0.01637188626135961</v>
       </c>
       <c r="Z94">
-        <v>0.0001897795891654748</v>
+        <v>0.0003752767129648485</v>
       </c>
       <c r="AA94">
-        <v>0.03129565936235831</v>
+        <v>0.01899854398328072</v>
       </c>
       <c r="AB94">
-        <v>0.0001614506005774235</v>
+        <v>8.336865256605378E-05</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -5212,49 +5212,49 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>8.347276767079232E-06</v>
+        <v>5.562696717358661E-06</v>
       </c>
       <c r="C95">
-        <v>0.123075306647787</v>
+        <v>0.1208570139321137</v>
       </c>
       <c r="D95">
-        <v>0.0004202632844705296</v>
+        <v>0.00060886765194727</v>
       </c>
       <c r="E95">
-        <v>0.1442519135721812</v>
+        <v>0.1343217017930035</v>
       </c>
       <c r="F95">
-        <v>7.257985130804692</v>
+        <v>7.51798519589782</v>
       </c>
       <c r="S95">
-        <v>5.241037827537116E-05</v>
+        <v>5.241054351073057E-05</v>
       </c>
       <c r="T95">
-        <v>0.003891576795223292</v>
+        <v>0.003891571381560217</v>
       </c>
       <c r="U95">
         <v>0.09169999999999993</v>
       </c>
       <c r="V95">
-        <v>7.632132265186077</v>
+        <v>7.024090187877476</v>
       </c>
       <c r="W95">
-        <v>9.235839711155489</v>
+        <v>10.4425170814424</v>
       </c>
       <c r="X95">
-        <v>9.016075978892763</v>
+        <v>9.453970288220507</v>
       </c>
       <c r="Y95">
-        <v>0.03464703912046046</v>
+        <v>0.01865711619684458</v>
       </c>
       <c r="Z95">
-        <v>0.0002145601802088669</v>
+        <v>0.0004365489049499757</v>
       </c>
       <c r="AA95">
-        <v>0.03574340347118416</v>
+        <v>0.02170071188766854</v>
       </c>
       <c r="AB95">
-        <v>0.0001827807745771919</v>
+        <v>9.385791409945153E-05</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -5262,49 +5262,49 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.499088439316438E-05</v>
+        <v>5.747173464968258E-06</v>
       </c>
       <c r="C96">
-        <v>0.1242324296983843</v>
+        <v>0.1219914304064549</v>
       </c>
       <c r="D96">
-        <v>0.0002383405340664283</v>
+        <v>0.0005704738618228614</v>
       </c>
       <c r="E96">
-        <v>0.1467301565404167</v>
+        <v>0.1300064091609274</v>
       </c>
       <c r="F96">
-        <v>10.55664013086267</v>
+        <v>7.576640197844545</v>
       </c>
       <c r="S96">
-        <v>8.990808422171057E-05</v>
+        <v>8.990837035661757E-05</v>
       </c>
       <c r="T96">
-        <v>0.001402233982106162</v>
+        <v>0.001402232012988319</v>
       </c>
       <c r="U96">
         <v>0.1697999999999998</v>
       </c>
       <c r="V96">
-        <v>7.619052041267539</v>
+        <v>7.009578786919986</v>
       </c>
       <c r="W96">
-        <v>7.625280856535349</v>
+        <v>8.673591984358211</v>
       </c>
       <c r="X96">
-        <v>9.056382003683458</v>
+        <v>8.722907213191359</v>
       </c>
       <c r="Y96">
-        <v>0.0403857856105024</v>
+        <v>0.02169387741216035</v>
       </c>
       <c r="Z96">
-        <v>0.0001398674121802407</v>
+        <v>0.000182543617325748</v>
       </c>
       <c r="AA96">
-        <v>0.04167017392061867</v>
+        <v>0.02530185421659673</v>
       </c>
       <c r="AB96">
-        <v>0.0001462983535589588</v>
+        <v>0.0001744938243458917</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -5312,49 +5312,49 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.475990651604757E-05</v>
+        <v>5.680006109590243E-06</v>
       </c>
       <c r="C97">
-        <v>0.1254133257856635</v>
+        <v>0.1231478204687847</v>
       </c>
       <c r="D97">
-        <v>0.0002507039482343859</v>
+        <v>0.0005885561533651368</v>
       </c>
       <c r="E97">
-        <v>0.1519672615186963</v>
+        <v>0.1325665485320035</v>
       </c>
       <c r="F97">
-        <v>10.55656099230617</v>
+        <v>7.576561059418261</v>
       </c>
       <c r="S97">
-        <v>7.671462674206594E-05</v>
+        <v>7.671487321855233E-05</v>
       </c>
       <c r="T97">
-        <v>0.001469111293208797</v>
+        <v>0.001469109210491527</v>
       </c>
       <c r="U97">
         <v>0.1414999999999998</v>
       </c>
       <c r="V97">
-        <v>7.606391444276488</v>
+        <v>7.001003864928292</v>
       </c>
       <c r="W97">
-        <v>7.67008603297993</v>
+        <v>9.909061815842481</v>
       </c>
       <c r="X97">
-        <v>9.098869511420082</v>
+        <v>9.106422348121953</v>
       </c>
       <c r="Y97">
-        <v>0.04843496925016685</v>
+        <v>0.02599614417112728</v>
       </c>
       <c r="Z97">
-        <v>0.0001651651098091467</v>
+        <v>0.0002804662341276557</v>
       </c>
       <c r="AA97">
-        <v>0.04997494903403063</v>
+        <v>0.03032732629504691</v>
       </c>
       <c r="AB97">
-        <v>0.0001719143965160589</v>
+        <v>0.0001525369275051107</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -5362,49 +5362,49 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.444679258323969E-05</v>
+        <v>5.595707621695895E-06</v>
       </c>
       <c r="C98">
-        <v>0.1266168125341003</v>
+        <v>0.124326274933356</v>
       </c>
       <c r="D98">
-        <v>0.000268106041594954</v>
+        <v>0.0006118720735253626</v>
       </c>
       <c r="E98">
-        <v>0.1590738614018136</v>
+        <v>0.1357819165002424</v>
       </c>
       <c r="F98">
-        <v>10.55646113371206</v>
+        <v>7.576461200986527</v>
       </c>
       <c r="S98">
-        <v>6.318681345575886E-05</v>
+        <v>6.318701842493283E-05</v>
       </c>
       <c r="T98">
-        <v>0.001555747032064459</v>
+        <v>0.001555744805278125</v>
       </c>
       <c r="U98">
         <v>0.1132000000000001</v>
       </c>
       <c r="V98">
-        <v>7.589644527132041</v>
+        <v>6.987618332367135</v>
       </c>
       <c r="W98">
-        <v>7.634520660886158</v>
+        <v>10.30152772782771</v>
       </c>
       <c r="X98">
-        <v>9.143323746406701</v>
+        <v>9.400896039641795</v>
       </c>
       <c r="Y98">
-        <v>0.06050242028525615</v>
+        <v>0.03242506365537712</v>
       </c>
       <c r="Z98">
-        <v>0.0002037993015437045</v>
+        <v>0.0004573386891451524</v>
       </c>
       <c r="AA98">
-        <v>0.06242570769340914</v>
+        <v>0.03787102363693227</v>
       </c>
       <c r="AB98">
-        <v>0.0002131072859427671</v>
+        <v>0.000165799447059526</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -5412,49 +5412,49 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.397812843408637E-05</v>
+        <v>5.479200789916088E-06</v>
       </c>
       <c r="C99">
-        <v>0.1278434990049014</v>
+        <v>0.125527385640733</v>
       </c>
       <c r="D99">
-        <v>0.0002956327392946101</v>
+        <v>0.0006452917129057401</v>
       </c>
       <c r="E99">
-        <v>0.1697254154035355</v>
+        <v>0.1402300869390975</v>
       </c>
       <c r="F99">
-        <v>10.55632626600658</v>
+        <v>7.576326333497184</v>
       </c>
       <c r="S99">
-        <v>4.922797264793615E-05</v>
+        <v>4.922813389029816E-05</v>
       </c>
       <c r="T99">
-        <v>0.00167596649706495</v>
+        <v>0.00167596407486967</v>
       </c>
       <c r="U99">
         <v>0.08490000000000007</v>
       </c>
       <c r="V99">
-        <v>7.565940740293025</v>
+        <v>6.967074281645153</v>
       </c>
       <c r="W99">
-        <v>7.487715587021207</v>
+        <v>10.47894376168316</v>
       </c>
       <c r="X99">
-        <v>9.187098703789383</v>
+        <v>9.570381584995179</v>
       </c>
       <c r="Y99">
-        <v>0.0806019606131603</v>
+        <v>0.04308097197745444</v>
       </c>
       <c r="Z99">
-        <v>0.0002709593728776745</v>
+        <v>0.0006625048660918821</v>
       </c>
       <c r="AA99">
-        <v>0.0831632411625646</v>
+        <v>0.05043943170022318</v>
       </c>
       <c r="AB99">
-        <v>0.0002892096206536554</v>
+        <v>0.0002167671153034354</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -5462,25 +5462,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.31513650317861E-05</v>
+        <v>5.286878006868965E-06</v>
       </c>
       <c r="C100">
-        <v>0.1290939682820152</v>
+        <v>0.1267517198949274</v>
       </c>
       <c r="D100">
-        <v>0.0003489125419034018</v>
+        <v>0.0007033971921668542</v>
       </c>
       <c r="E100">
-        <v>0.1884865182303003</v>
+        <v>0.1475164704397123</v>
       </c>
       <c r="F100">
-        <v>10.55467121187284</v>
+        <v>7.574671281802467</v>
       </c>
       <c r="S100">
-        <v>3.466911542856202E-05</v>
+        <v>3.466923010024333E-05</v>
       </c>
       <c r="T100">
-        <v>0.003313918931850795</v>
+        <v>0.003313914095352341</v>
       </c>
       <c r="U100">
         <v>0.05660000000000005</v>
@@ -5495,13 +5495,13 @@
         <v>0</v>
       </c>
       <c r="Y100">
-        <v>0.1207674612333016</v>
+        <v>0.06429020553313572</v>
       </c>
       <c r="Z100">
         <v>0</v>
       </c>
       <c r="AA100">
-        <v>0.1246002569335201</v>
+        <v>0.07555076399268305</v>
       </c>
       <c r="AB100">
         <v>0</v>
